--- a/LeetCode/leetcode.xlsx
+++ b/LeetCode/leetcode.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhantong\Documents\GitHub\interview\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SanDisk/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9915" yWindow="4155" windowWidth="26295" windowHeight="14820"/>
+    <workbookView xWindow="9920" yWindow="4160" windowWidth="26300" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$G$1:$G$590</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -3635,7 +3638,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -4059,16 +4062,16 @@
   <dimension ref="A1:L590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.125" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="5" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -4218,7 +4221,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -4241,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -4287,7 +4290,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -4448,7 +4451,7 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -4471,7 +4474,7 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -4517,7 +4520,7 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -4586,7 +4589,7 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -4609,7 +4612,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -4655,7 +4658,7 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -4724,7 +4727,7 @@
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -4793,7 +4796,7 @@
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -4816,7 +4819,7 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -4862,7 +4865,7 @@
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -5020,7 +5023,7 @@
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -5066,7 +5069,7 @@
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -5089,7 +5092,7 @@
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -5848,7 +5851,7 @@
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -6193,7 +6196,7 @@
         <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -6285,7 +6288,7 @@
         <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
@@ -6860,7 +6863,7 @@
         <v>10</v>
       </c>
       <c r="G121" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -7021,7 +7024,7 @@
         <v>10</v>
       </c>
       <c r="G128" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -7811,7 +7814,7 @@
         <v>10</v>
       </c>
       <c r="G163" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -8607,7 +8610,7 @@
         <v>10</v>
       </c>
       <c r="G198" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
@@ -8653,7 +8656,7 @@
         <v>10</v>
       </c>
       <c r="G200" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
@@ -8857,7 +8860,7 @@
         <v>10</v>
       </c>
       <c r="G209" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
@@ -8949,7 +8952,7 @@
         <v>10</v>
       </c>
       <c r="G213" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
@@ -9133,7 +9136,7 @@
         <v>10</v>
       </c>
       <c r="G221" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.15">
@@ -9938,7 +9941,7 @@
         <v>10</v>
       </c>
       <c r="G259" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -10239,7 +10242,7 @@
         <v>10</v>
       </c>
       <c r="G273" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.15">
@@ -10454,7 +10457,7 @@
         <v>10</v>
       </c>
       <c r="G283" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
@@ -10629,7 +10632,7 @@
         <v>10</v>
       </c>
       <c r="G291" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.15">
@@ -11002,7 +11005,7 @@
         <v>10</v>
       </c>
       <c r="G308" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
@@ -11378,7 +11381,7 @@
         <v>10</v>
       </c>
       <c r="G325" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.15">
@@ -11424,7 +11427,7 @@
         <v>10</v>
       </c>
       <c r="G327" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.15">
@@ -11897,7 +11900,7 @@
         <v>10</v>
       </c>
       <c r="G349" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
@@ -11963,7 +11966,7 @@
         <v>10</v>
       </c>
       <c r="G352" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
@@ -12141,7 +12144,7 @@
         <v>10</v>
       </c>
       <c r="G360" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.15">
@@ -12187,7 +12190,7 @@
         <v>10</v>
       </c>
       <c r="G362" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.15">
@@ -12230,7 +12233,7 @@
         <v>10</v>
       </c>
       <c r="G364" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
@@ -12345,7 +12348,7 @@
         <v>10</v>
       </c>
       <c r="G369" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.15">
@@ -12368,7 +12371,7 @@
         <v>10</v>
       </c>
       <c r="G370" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.15">
@@ -12667,7 +12670,7 @@
         <v>10</v>
       </c>
       <c r="G383" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.15">
@@ -13316,7 +13319,7 @@
         <v>10</v>
       </c>
       <c r="G412" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
@@ -13339,7 +13342,7 @@
         <v>10</v>
       </c>
       <c r="G413" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.15">
@@ -13385,7 +13388,7 @@
         <v>10</v>
       </c>
       <c r="G415" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.15">
@@ -13517,7 +13520,7 @@
         <v>10</v>
       </c>
       <c r="G421" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.15">
@@ -14057,7 +14060,7 @@
         <v>10</v>
       </c>
       <c r="G445" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.15">
@@ -14080,7 +14083,7 @@
         <v>10</v>
       </c>
       <c r="G446" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.15">
@@ -14519,7 +14522,7 @@
         <v>10</v>
       </c>
       <c r="G466" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.15">
@@ -14996,7 +14999,7 @@
         <v>10</v>
       </c>
       <c r="G487" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.15">
@@ -15019,7 +15022,7 @@
         <v>10</v>
       </c>
       <c r="G488" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.15">
@@ -15478,7 +15481,7 @@
         <v>10</v>
       </c>
       <c r="G509" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.15">
@@ -15653,7 +15656,7 @@
         <v>10</v>
       </c>
       <c r="G517" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.15">
@@ -17168,6 +17171,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:G590"/>
   <sortState ref="A2:G590">
     <sortCondition ref="A564"/>
   </sortState>

--- a/LeetCode/leetcode.xlsx
+++ b/LeetCode/leetcode.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SanDisk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhantong/Documents/GitHub/list-leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="4160" windowWidth="26300" windowHeight="14820"/>
+    <workbookView xWindow="2020" yWindow="960" windowWidth="28560" windowHeight="17380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$G$1:$G$590</definedName>
-  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="1214">
   <si>
     <t>题号</t>
   </si>
@@ -3599,7 +3596,68 @@
     <t>strange-printer</t>
   </si>
   <si>
+    <t>Non-decreasing Array</t>
+  </si>
+  <si>
+    <t>non-decreasing-array</t>
+  </si>
+  <si>
+    <t>Path Sum IV</t>
+  </si>
+  <si>
+    <t>path-sum-iv</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement II</t>
+  </si>
+  <si>
+    <t>beautiful-arrangement-ii</t>
+  </si>
+  <si>
+    <t>Kth Smallest Number in Multiplication Table</t>
+  </si>
+  <si>
+    <t>kth-smallest-number-in-multiplication-table</t>
+  </si>
+  <si>
+    <t>Trim a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>trim-a-binary-search-tree</t>
+  </si>
+  <si>
+    <t>Maximum Swap</t>
+  </si>
+  <si>
+    <t>maximum-swap</t>
+  </si>
+  <si>
+    <t>Second Minimum Node In a Binary Tree</t>
+  </si>
+  <si>
+    <t>second-minimum-node-in-a-binary-tree</t>
+  </si>
+  <si>
+    <t>Bulb Switcher II</t>
+  </si>
+  <si>
+    <t>bulb-switcher-ii</t>
+  </si>
+  <si>
+    <t>熟练程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练</t>
+  </si>
+  <si>
     <t>不熟练</t>
+  </si>
+  <si>
+    <t>较熟练</t>
+  </si>
+  <si>
+    <t>一般</t>
   </si>
   <si>
     <t>不熟练</t>
@@ -3607,13 +3665,7 @@
   </si>
   <si>
     <t>一般</t>
-  </si>
-  <si>
-    <t>一般</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>较熟练</t>
   </si>
   <si>
     <t>较熟练</t>
@@ -3621,17 +3673,6 @@
   </si>
   <si>
     <t>熟练</t>
-  </si>
-  <si>
-    <t>熟练</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练程度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3642,7 +3683,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3653,20 +3694,12 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3692,11 +3725,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="int" xfId="1"/>
@@ -3704,7 +3736,23 @@
     <cellStyle name="str" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC2EFCF"/>
+          <bgColor rgb="FFC2EFCF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3761,14 +3809,27 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC2EFCF"/>
+          <bgColor rgb="FFC2EFCF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4059,19 +4120,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L590"/>
+  <dimension ref="A1:L598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="2" max="3" width="54.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -4094,7 +4154,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>1197</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4113,14 +4173,14 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>1198</v>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
       <c r="L2" t="s">
-        <v>1190</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4143,10 +4203,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
       <c r="L3" t="s">
-        <v>1192</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -4169,10 +4229,10 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
       <c r="L4" t="s">
-        <v>1194</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -4195,10 +4255,10 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
       <c r="L5" t="s">
-        <v>1196</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -4221,7 +4281,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -4244,7 +4304,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -4267,7 +4327,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -4290,7 +4350,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -4313,7 +4373,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -4336,7 +4396,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -4359,7 +4419,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -4382,7 +4442,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -4405,7 +4465,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>1191</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -4428,7 +4488,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -4451,7 +4511,7 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -4474,7 +4534,7 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -4497,7 +4557,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -4520,7 +4580,7 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -4543,7 +4603,7 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -4566,7 +4626,7 @@
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -4589,7 +4649,7 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -4612,7 +4672,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -4635,7 +4695,7 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -4658,7 +4718,7 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -4681,7 +4741,7 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -4704,7 +4764,7 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -4727,7 +4787,7 @@
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -4750,7 +4810,7 @@
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -4773,7 +4833,7 @@
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -4796,7 +4856,7 @@
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -4819,7 +4879,7 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -4842,7 +4902,7 @@
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -4865,7 +4925,7 @@
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -4888,7 +4948,7 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -4911,7 +4971,7 @@
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -4934,7 +4994,7 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -4957,7 +5017,7 @@
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -5000,7 +5060,7 @@
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -5023,7 +5083,7 @@
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -5046,7 +5106,7 @@
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -5069,7 +5129,7 @@
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -5092,7 +5152,7 @@
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -5115,7 +5175,7 @@
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -5138,7 +5198,7 @@
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -5161,7 +5221,7 @@
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -5184,7 +5244,7 @@
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -5207,7 +5267,7 @@
         <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -5230,7 +5290,7 @@
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -5253,7 +5313,7 @@
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -5276,7 +5336,7 @@
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -5299,7 +5359,7 @@
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -5322,7 +5382,7 @@
         <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -5345,7 +5405,7 @@
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -5368,7 +5428,7 @@
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -5391,7 +5451,7 @@
         <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -5414,7 +5474,7 @@
         <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -5437,7 +5497,7 @@
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -5460,7 +5520,7 @@
         <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -5483,7 +5543,7 @@
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -5506,7 +5566,7 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -5529,7 +5589,7 @@
         <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -5552,7 +5612,7 @@
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -5575,7 +5635,7 @@
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -5598,7 +5658,7 @@
         <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -5621,7 +5681,7 @@
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -5644,7 +5704,7 @@
         <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -5667,7 +5727,7 @@
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -5690,7 +5750,7 @@
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -5713,7 +5773,7 @@
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -5736,7 +5796,7 @@
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -5759,7 +5819,7 @@
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -5782,7 +5842,7 @@
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -5805,7 +5865,7 @@
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -5828,7 +5888,7 @@
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -5851,7 +5911,7 @@
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -5874,7 +5934,7 @@
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -5897,7 +5957,7 @@
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -5920,7 +5980,7 @@
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -5943,7 +6003,7 @@
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
@@ -5966,7 +6026,7 @@
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>1191</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -5989,7 +6049,7 @@
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -6012,7 +6072,7 @@
         <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -6035,7 +6095,7 @@
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -6058,7 +6118,7 @@
         <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -6081,7 +6141,7 @@
         <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -6104,7 +6164,7 @@
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -6127,7 +6187,7 @@
         <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
@@ -6150,7 +6210,7 @@
         <v>10</v>
       </c>
       <c r="G90" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
@@ -6173,7 +6233,7 @@
         <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -6196,7 +6256,7 @@
         <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -6219,7 +6279,7 @@
         <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
@@ -6242,7 +6302,7 @@
         <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -6265,7 +6325,7 @@
         <v>10</v>
       </c>
       <c r="G95" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
@@ -6288,7 +6348,7 @@
         <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
@@ -6311,7 +6371,7 @@
         <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -6334,7 +6394,7 @@
         <v>10</v>
       </c>
       <c r="G98" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -6357,7 +6417,7 @@
         <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
@@ -6380,7 +6440,7 @@
         <v>10</v>
       </c>
       <c r="G100" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -6403,7 +6463,7 @@
         <v>10</v>
       </c>
       <c r="G101" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
@@ -6426,7 +6486,7 @@
         <v>10</v>
       </c>
       <c r="G102" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
@@ -6449,7 +6509,7 @@
         <v>10</v>
       </c>
       <c r="G103" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -6472,7 +6532,7 @@
         <v>10</v>
       </c>
       <c r="G104" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -6495,7 +6555,7 @@
         <v>10</v>
       </c>
       <c r="G105" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
@@ -6518,7 +6578,7 @@
         <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -6541,7 +6601,7 @@
         <v>10</v>
       </c>
       <c r="G107" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
@@ -6564,7 +6624,7 @@
         <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
@@ -6587,7 +6647,7 @@
         <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -6610,7 +6670,7 @@
         <v>10</v>
       </c>
       <c r="G110" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -6633,7 +6693,7 @@
         <v>10</v>
       </c>
       <c r="G111" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
@@ -6656,7 +6716,7 @@
         <v>10</v>
       </c>
       <c r="G112" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -6679,7 +6739,7 @@
         <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
@@ -6702,7 +6762,7 @@
         <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
@@ -6725,7 +6785,7 @@
         <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -6748,7 +6808,7 @@
         <v>10</v>
       </c>
       <c r="G116" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
@@ -6771,7 +6831,7 @@
         <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
@@ -6794,7 +6854,7 @@
         <v>10</v>
       </c>
       <c r="G118" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -6817,7 +6877,7 @@
         <v>10</v>
       </c>
       <c r="G119" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
@@ -6840,7 +6900,7 @@
         <v>10</v>
       </c>
       <c r="G120" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
@@ -6863,7 +6923,7 @@
         <v>10</v>
       </c>
       <c r="G121" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -6886,7 +6946,7 @@
         <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -6909,7 +6969,7 @@
         <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
@@ -6932,7 +6992,7 @@
         <v>10</v>
       </c>
       <c r="G124" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -6955,7 +7015,7 @@
         <v>10</v>
       </c>
       <c r="G125" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
@@ -6978,7 +7038,7 @@
         <v>10</v>
       </c>
       <c r="G126" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
@@ -7001,7 +7061,7 @@
         <v>10</v>
       </c>
       <c r="G127" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -7024,7 +7084,7 @@
         <v>10</v>
       </c>
       <c r="G128" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -7047,7 +7107,7 @@
         <v>10</v>
       </c>
       <c r="G129" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
@@ -7070,7 +7130,7 @@
         <v>10</v>
       </c>
       <c r="G130" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
@@ -7093,7 +7153,7 @@
         <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
@@ -7116,7 +7176,7 @@
         <v>10</v>
       </c>
       <c r="G132" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
@@ -7139,7 +7199,7 @@
         <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -7162,7 +7222,7 @@
         <v>10</v>
       </c>
       <c r="G134" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
@@ -7185,7 +7245,7 @@
         <v>10</v>
       </c>
       <c r="G135" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
@@ -7208,7 +7268,7 @@
         <v>10</v>
       </c>
       <c r="G136" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -7231,7 +7291,7 @@
         <v>10</v>
       </c>
       <c r="G137" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
@@ -7254,7 +7314,7 @@
         <v>10</v>
       </c>
       <c r="G138" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
@@ -7277,7 +7337,7 @@
         <v>10</v>
       </c>
       <c r="G139" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -7300,7 +7360,7 @@
         <v>10</v>
       </c>
       <c r="G140" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
@@ -7323,7 +7383,7 @@
         <v>10</v>
       </c>
       <c r="G141" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
@@ -7346,7 +7406,7 @@
         <v>10</v>
       </c>
       <c r="G142" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -7369,7 +7429,7 @@
         <v>10</v>
       </c>
       <c r="G143" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
@@ -7392,7 +7452,7 @@
         <v>10</v>
       </c>
       <c r="G144" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
@@ -7415,7 +7475,7 @@
         <v>10</v>
       </c>
       <c r="G145" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
@@ -7438,7 +7498,7 @@
         <v>10</v>
       </c>
       <c r="G146" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
@@ -7461,7 +7521,7 @@
         <v>10</v>
       </c>
       <c r="G147" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
@@ -7484,7 +7544,7 @@
         <v>10</v>
       </c>
       <c r="G148" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -7507,7 +7567,7 @@
         <v>10</v>
       </c>
       <c r="G149" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
@@ -7530,7 +7590,7 @@
         <v>10</v>
       </c>
       <c r="G150" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
@@ -7553,7 +7613,7 @@
         <v>10</v>
       </c>
       <c r="G151" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -7576,7 +7636,7 @@
         <v>10</v>
       </c>
       <c r="G152" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
@@ -7599,7 +7659,7 @@
         <v>10</v>
       </c>
       <c r="G153" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
@@ -7622,7 +7682,7 @@
         <v>10</v>
       </c>
       <c r="G154" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -7645,7 +7705,7 @@
         <v>10</v>
       </c>
       <c r="G155" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
@@ -7668,7 +7728,7 @@
         <v>10</v>
       </c>
       <c r="G156" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
@@ -7771,7 +7831,7 @@
         <v>10</v>
       </c>
       <c r="G161" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
@@ -7814,7 +7874,7 @@
         <v>10</v>
       </c>
       <c r="G163" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -7857,7 +7917,7 @@
         <v>10</v>
       </c>
       <c r="G165" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
@@ -7880,7 +7940,7 @@
         <v>10</v>
       </c>
       <c r="G166" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
@@ -7903,7 +7963,7 @@
         <v>10</v>
       </c>
       <c r="G167" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
@@ -7926,7 +7986,7 @@
         <v>10</v>
       </c>
       <c r="G168" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
@@ -7949,7 +8009,7 @@
         <v>10</v>
       </c>
       <c r="G169" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -7972,7 +8032,7 @@
         <v>10</v>
       </c>
       <c r="G170" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
@@ -8015,7 +8075,7 @@
         <v>10</v>
       </c>
       <c r="G172" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -8038,7 +8098,7 @@
         <v>10</v>
       </c>
       <c r="G173" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
@@ -8061,7 +8121,7 @@
         <v>10</v>
       </c>
       <c r="G174" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
@@ -8084,7 +8144,7 @@
         <v>10</v>
       </c>
       <c r="G175" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
@@ -8107,7 +8167,7 @@
         <v>10</v>
       </c>
       <c r="G176" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
@@ -8150,7 +8210,7 @@
         <v>10</v>
       </c>
       <c r="G178" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
@@ -8173,7 +8233,7 @@
         <v>10</v>
       </c>
       <c r="G179" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
@@ -8196,7 +8256,7 @@
         <v>10</v>
       </c>
       <c r="G180" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
@@ -8219,7 +8279,7 @@
         <v>10</v>
       </c>
       <c r="G181" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
@@ -8242,7 +8302,7 @@
         <v>10</v>
       </c>
       <c r="G182" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
@@ -8265,7 +8325,7 @@
         <v>10</v>
       </c>
       <c r="G183" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
@@ -8288,7 +8348,7 @@
         <v>10</v>
       </c>
       <c r="G184" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -8311,7 +8371,7 @@
         <v>10</v>
       </c>
       <c r="G185" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
@@ -8334,7 +8394,7 @@
         <v>10</v>
       </c>
       <c r="G186" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
@@ -8357,7 +8417,7 @@
         <v>10</v>
       </c>
       <c r="G187" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
@@ -8380,7 +8440,7 @@
         <v>10</v>
       </c>
       <c r="G188" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
@@ -8403,7 +8463,7 @@
         <v>10</v>
       </c>
       <c r="G189" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
@@ -8426,7 +8486,7 @@
         <v>10</v>
       </c>
       <c r="G190" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
@@ -8449,7 +8509,7 @@
         <v>10</v>
       </c>
       <c r="G191" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
@@ -8472,7 +8532,7 @@
         <v>10</v>
       </c>
       <c r="G192" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
@@ -8495,7 +8555,7 @@
         <v>10</v>
       </c>
       <c r="G193" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
@@ -8518,7 +8578,7 @@
         <v>10</v>
       </c>
       <c r="G194" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
@@ -8541,7 +8601,7 @@
         <v>10</v>
       </c>
       <c r="G195" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
@@ -8564,7 +8624,7 @@
         <v>10</v>
       </c>
       <c r="G196" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
@@ -8587,7 +8647,7 @@
         <v>10</v>
       </c>
       <c r="G197" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
@@ -8610,7 +8670,7 @@
         <v>10</v>
       </c>
       <c r="G198" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
@@ -8633,7 +8693,7 @@
         <v>10</v>
       </c>
       <c r="G199" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -8656,7 +8716,7 @@
         <v>10</v>
       </c>
       <c r="G200" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
@@ -8679,7 +8739,7 @@
         <v>10</v>
       </c>
       <c r="G201" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.15">
@@ -8702,7 +8762,7 @@
         <v>10</v>
       </c>
       <c r="G202" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
@@ -8725,7 +8785,7 @@
         <v>10</v>
       </c>
       <c r="G203" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
@@ -8748,7 +8808,7 @@
         <v>10</v>
       </c>
       <c r="G204" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
@@ -8771,7 +8831,7 @@
         <v>10</v>
       </c>
       <c r="G205" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
@@ -8794,7 +8854,7 @@
         <v>10</v>
       </c>
       <c r="G206" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.15">
@@ -8837,7 +8897,7 @@
         <v>10</v>
       </c>
       <c r="G208" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
@@ -8860,7 +8920,7 @@
         <v>10</v>
       </c>
       <c r="G209" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
@@ -8883,7 +8943,7 @@
         <v>10</v>
       </c>
       <c r="G210" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.15">
@@ -8906,7 +8966,7 @@
         <v>10</v>
       </c>
       <c r="G211" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
@@ -8929,7 +8989,7 @@
         <v>10</v>
       </c>
       <c r="G212" t="s">
-        <v>1191</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
@@ -8952,7 +9012,7 @@
         <v>10</v>
       </c>
       <c r="G213" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
@@ -8975,7 +9035,7 @@
         <v>10</v>
       </c>
       <c r="G214" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
@@ -8998,7 +9058,7 @@
         <v>10</v>
       </c>
       <c r="G215" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.15">
@@ -9021,7 +9081,7 @@
         <v>10</v>
       </c>
       <c r="G216" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.15">
@@ -9044,7 +9104,7 @@
         <v>10</v>
       </c>
       <c r="G217" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
@@ -9067,7 +9127,7 @@
         <v>10</v>
       </c>
       <c r="G218" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
@@ -9090,7 +9150,7 @@
         <v>10</v>
       </c>
       <c r="G219" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.15">
@@ -9113,7 +9173,7 @@
         <v>10</v>
       </c>
       <c r="G220" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
@@ -9136,7 +9196,7 @@
         <v>10</v>
       </c>
       <c r="G221" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.15">
@@ -9159,7 +9219,7 @@
         <v>10</v>
       </c>
       <c r="G222" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
@@ -9182,7 +9242,7 @@
         <v>10</v>
       </c>
       <c r="G223" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
@@ -9205,7 +9265,7 @@
         <v>10</v>
       </c>
       <c r="G224" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
@@ -9228,7 +9288,7 @@
         <v>10</v>
       </c>
       <c r="G225" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.15">
@@ -9251,7 +9311,7 @@
         <v>10</v>
       </c>
       <c r="G226" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
@@ -9274,7 +9334,7 @@
         <v>10</v>
       </c>
       <c r="G227" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
@@ -9577,7 +9637,7 @@
         <v>10</v>
       </c>
       <c r="G242" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
@@ -9600,7 +9660,7 @@
         <v>10</v>
       </c>
       <c r="G243" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.15">
@@ -9643,7 +9703,7 @@
         <v>10</v>
       </c>
       <c r="G245" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.15">
@@ -9686,7 +9746,7 @@
         <v>10</v>
       </c>
       <c r="G247" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
@@ -9709,7 +9769,7 @@
         <v>10</v>
       </c>
       <c r="G248" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
@@ -9792,7 +9852,7 @@
         <v>10</v>
       </c>
       <c r="G252" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.15">
@@ -9895,7 +9955,7 @@
         <v>10</v>
       </c>
       <c r="G257" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
@@ -9918,7 +9978,7 @@
         <v>10</v>
       </c>
       <c r="G258" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
@@ -9941,7 +10001,7 @@
         <v>10</v>
       </c>
       <c r="G259" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -10004,7 +10064,7 @@
         <v>10</v>
       </c>
       <c r="G262" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
@@ -10027,7 +10087,7 @@
         <v>10</v>
       </c>
       <c r="G263" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
@@ -10090,7 +10150,7 @@
         <v>10</v>
       </c>
       <c r="G266" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
@@ -10113,7 +10173,7 @@
         <v>10</v>
       </c>
       <c r="G267" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
@@ -10136,7 +10196,7 @@
         <v>10</v>
       </c>
       <c r="G268" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
@@ -10199,7 +10259,7 @@
         <v>10</v>
       </c>
       <c r="G271" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.15">
@@ -10242,7 +10302,7 @@
         <v>10</v>
       </c>
       <c r="G273" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.15">
@@ -10265,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="G274" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
@@ -10308,7 +10368,7 @@
         <v>10</v>
       </c>
       <c r="G276" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.15">
@@ -10371,7 +10431,7 @@
         <v>10</v>
       </c>
       <c r="G279" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.15">
@@ -10414,7 +10474,7 @@
         <v>10</v>
       </c>
       <c r="G281" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.15">
@@ -10457,7 +10517,7 @@
         <v>10</v>
       </c>
       <c r="G283" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
@@ -10480,7 +10540,7 @@
         <v>10</v>
       </c>
       <c r="G284" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.15">
@@ -10543,7 +10603,7 @@
         <v>10</v>
       </c>
       <c r="G287" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.15">
@@ -10566,7 +10626,7 @@
         <v>10</v>
       </c>
       <c r="G288" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.15">
@@ -10609,7 +10669,7 @@
         <v>10</v>
       </c>
       <c r="G290" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.15">
@@ -10632,7 +10692,7 @@
         <v>10</v>
       </c>
       <c r="G291" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.15">
@@ -10675,7 +10735,7 @@
         <v>10</v>
       </c>
       <c r="G293" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.15">
@@ -10698,7 +10758,7 @@
         <v>10</v>
       </c>
       <c r="G294" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.15">
@@ -10741,7 +10801,7 @@
         <v>10</v>
       </c>
       <c r="G296" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.15">
@@ -10764,7 +10824,7 @@
         <v>10</v>
       </c>
       <c r="G297" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.15">
@@ -10807,7 +10867,7 @@
         <v>10</v>
       </c>
       <c r="G299" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.15">
@@ -10830,7 +10890,7 @@
         <v>10</v>
       </c>
       <c r="G300" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.15">
@@ -10873,7 +10933,7 @@
         <v>10</v>
       </c>
       <c r="G302" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.15">
@@ -10896,7 +10956,7 @@
         <v>10</v>
       </c>
       <c r="G303" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.15">
@@ -10939,7 +10999,7 @@
         <v>10</v>
       </c>
       <c r="G305" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.15">
@@ -10962,7 +11022,7 @@
         <v>10</v>
       </c>
       <c r="G306" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.15">
@@ -11005,7 +11065,7 @@
         <v>10</v>
       </c>
       <c r="G308" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
@@ -11048,7 +11108,7 @@
         <v>10</v>
       </c>
       <c r="G310" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.15">
@@ -11091,7 +11151,7 @@
         <v>10</v>
       </c>
       <c r="G312" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.15">
@@ -11114,7 +11174,7 @@
         <v>10</v>
       </c>
       <c r="G313" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
@@ -11137,7 +11197,7 @@
         <v>10</v>
       </c>
       <c r="G314" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.15">
@@ -11160,7 +11220,7 @@
         <v>10</v>
       </c>
       <c r="G315" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.15">
@@ -11183,7 +11243,7 @@
         <v>10</v>
       </c>
       <c r="G316" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
@@ -11226,7 +11286,7 @@
         <v>10</v>
       </c>
       <c r="G318" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.15">
@@ -11249,7 +11309,7 @@
         <v>10</v>
       </c>
       <c r="G319" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
@@ -11272,7 +11332,7 @@
         <v>10</v>
       </c>
       <c r="G320" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.15">
@@ -11295,7 +11355,7 @@
         <v>10</v>
       </c>
       <c r="G321" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.15">
@@ -11318,7 +11378,7 @@
         <v>10</v>
       </c>
       <c r="G322" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
@@ -11381,7 +11441,7 @@
         <v>10</v>
       </c>
       <c r="G325" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.15">
@@ -11404,7 +11464,7 @@
         <v>10</v>
       </c>
       <c r="G326" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.15">
@@ -11427,7 +11487,7 @@
         <v>10</v>
       </c>
       <c r="G327" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.15">
@@ -11450,7 +11510,7 @@
         <v>10</v>
       </c>
       <c r="G328" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
@@ -11473,7 +11533,7 @@
         <v>10</v>
       </c>
       <c r="G329" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.15">
@@ -11516,7 +11576,7 @@
         <v>10</v>
       </c>
       <c r="G331" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.15">
@@ -11559,7 +11619,7 @@
         <v>10</v>
       </c>
       <c r="G333" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.15">
@@ -11582,7 +11642,7 @@
         <v>10</v>
       </c>
       <c r="G334" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
@@ -11625,7 +11685,7 @@
         <v>10</v>
       </c>
       <c r="G336" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.15">
@@ -11668,7 +11728,7 @@
         <v>10</v>
       </c>
       <c r="G338" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.15">
@@ -11691,7 +11751,7 @@
         <v>10</v>
       </c>
       <c r="G339" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.15">
@@ -11734,7 +11794,7 @@
         <v>10</v>
       </c>
       <c r="G341" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.15">
@@ -11857,7 +11917,7 @@
         <v>10</v>
       </c>
       <c r="G347" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.15">
@@ -11900,7 +11960,7 @@
         <v>10</v>
       </c>
       <c r="G349" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
@@ -11943,7 +12003,7 @@
         <v>10</v>
       </c>
       <c r="G351" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.15">
@@ -11966,7 +12026,7 @@
         <v>10</v>
       </c>
       <c r="G352" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
@@ -12029,7 +12089,7 @@
         <v>10</v>
       </c>
       <c r="G355" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.15">
@@ -12052,7 +12112,7 @@
         <v>10</v>
       </c>
       <c r="G356" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.15">
@@ -12075,7 +12135,7 @@
         <v>10</v>
       </c>
       <c r="G357" t="s">
-        <v>1191</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.15">
@@ -12098,7 +12158,7 @@
         <v>10</v>
       </c>
       <c r="G358" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.15">
@@ -12121,7 +12181,7 @@
         <v>10</v>
       </c>
       <c r="G359" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.15">
@@ -12144,7 +12204,7 @@
         <v>10</v>
       </c>
       <c r="G360" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.15">
@@ -12167,7 +12227,7 @@
         <v>10</v>
       </c>
       <c r="G361" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.15">
@@ -12190,7 +12250,7 @@
         <v>10</v>
       </c>
       <c r="G362" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.15">
@@ -12233,7 +12293,7 @@
         <v>10</v>
       </c>
       <c r="G364" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
@@ -12256,7 +12316,7 @@
         <v>10</v>
       </c>
       <c r="G365" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.15">
@@ -12279,7 +12339,7 @@
         <v>10</v>
       </c>
       <c r="G366" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.15">
@@ -12302,7 +12362,7 @@
         <v>10</v>
       </c>
       <c r="G367" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
@@ -12325,7 +12385,7 @@
         <v>10</v>
       </c>
       <c r="G368" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.15">
@@ -12348,7 +12408,7 @@
         <v>10</v>
       </c>
       <c r="G369" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.15">
@@ -12371,7 +12431,7 @@
         <v>10</v>
       </c>
       <c r="G370" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.15">
@@ -12394,7 +12454,7 @@
         <v>10</v>
       </c>
       <c r="G371" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.15">
@@ -12417,7 +12477,7 @@
         <v>10</v>
       </c>
       <c r="G372" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.15">
@@ -12440,7 +12500,7 @@
         <v>10</v>
       </c>
       <c r="G373" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.15">
@@ -12463,7 +12523,7 @@
         <v>10</v>
       </c>
       <c r="G374" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.15">
@@ -12486,7 +12546,7 @@
         <v>10</v>
       </c>
       <c r="G375" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.15">
@@ -12509,7 +12569,7 @@
         <v>10</v>
       </c>
       <c r="G376" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.15">
@@ -12532,7 +12592,7 @@
         <v>10</v>
       </c>
       <c r="G377" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.15">
@@ -12555,7 +12615,7 @@
         <v>10</v>
       </c>
       <c r="G378" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.15">
@@ -12578,7 +12638,7 @@
         <v>10</v>
       </c>
       <c r="G379" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
@@ -12601,7 +12661,7 @@
         <v>10</v>
       </c>
       <c r="G380" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.15">
@@ -12624,7 +12684,7 @@
         <v>10</v>
       </c>
       <c r="G381" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.15">
@@ -12647,7 +12707,7 @@
         <v>10</v>
       </c>
       <c r="G382" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
@@ -12670,7 +12730,7 @@
         <v>10</v>
       </c>
       <c r="G383" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.15">
@@ -12693,7 +12753,7 @@
         <v>10</v>
       </c>
       <c r="G384" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.15">
@@ -12716,7 +12776,7 @@
         <v>10</v>
       </c>
       <c r="G385" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.15">
@@ -12739,7 +12799,7 @@
         <v>10</v>
       </c>
       <c r="G386" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.15">
@@ -12762,7 +12822,7 @@
         <v>10</v>
       </c>
       <c r="G387" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.15">
@@ -12785,7 +12845,7 @@
         <v>10</v>
       </c>
       <c r="G388" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
@@ -12808,7 +12868,7 @@
         <v>10</v>
       </c>
       <c r="G389" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.15">
@@ -12831,7 +12891,7 @@
         <v>10</v>
       </c>
       <c r="G390" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.15">
@@ -12854,7 +12914,7 @@
         <v>10</v>
       </c>
       <c r="G391" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.15">
@@ -12897,7 +12957,7 @@
         <v>10</v>
       </c>
       <c r="G393" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.15">
@@ -12920,7 +12980,7 @@
         <v>10</v>
       </c>
       <c r="G394" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
@@ -12963,7 +13023,7 @@
         <v>10</v>
       </c>
       <c r="G396" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.15">
@@ -12986,7 +13046,7 @@
         <v>10</v>
       </c>
       <c r="G397" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
@@ -13009,7 +13069,7 @@
         <v>10</v>
       </c>
       <c r="G398" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.15">
@@ -13032,7 +13092,7 @@
         <v>10</v>
       </c>
       <c r="G399" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.15">
@@ -13055,7 +13115,7 @@
         <v>10</v>
       </c>
       <c r="G400" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.15">
@@ -13078,7 +13138,7 @@
         <v>10</v>
       </c>
       <c r="G401" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.15">
@@ -13121,7 +13181,7 @@
         <v>10</v>
       </c>
       <c r="G403" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
@@ -13164,7 +13224,7 @@
         <v>10</v>
       </c>
       <c r="G405" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.15">
@@ -13207,7 +13267,7 @@
         <v>10</v>
       </c>
       <c r="G407" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.15">
@@ -13230,7 +13290,7 @@
         <v>10</v>
       </c>
       <c r="G408" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.15">
@@ -13273,7 +13333,7 @@
         <v>10</v>
       </c>
       <c r="G410" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.15">
@@ -13296,7 +13356,7 @@
         <v>10</v>
       </c>
       <c r="G411" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.15">
@@ -13319,7 +13379,7 @@
         <v>10</v>
       </c>
       <c r="G412" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
@@ -13342,7 +13402,7 @@
         <v>10</v>
       </c>
       <c r="G413" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.15">
@@ -13365,7 +13425,7 @@
         <v>10</v>
       </c>
       <c r="G414" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.15">
@@ -13388,7 +13448,7 @@
         <v>10</v>
       </c>
       <c r="G415" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.15">
@@ -13431,7 +13491,7 @@
         <v>10</v>
       </c>
       <c r="G417" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.15">
@@ -13454,7 +13514,7 @@
         <v>10</v>
       </c>
       <c r="G418" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.15">
@@ -13477,7 +13537,7 @@
         <v>10</v>
       </c>
       <c r="G419" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.15">
@@ -13520,7 +13580,7 @@
         <v>10</v>
       </c>
       <c r="G421" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.15">
@@ -13543,7 +13603,7 @@
         <v>10</v>
       </c>
       <c r="G422" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.15">
@@ -13566,7 +13626,7 @@
         <v>10</v>
       </c>
       <c r="G423" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.15">
@@ -13589,7 +13649,7 @@
         <v>10</v>
       </c>
       <c r="G424" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.15">
@@ -13612,7 +13672,7 @@
         <v>10</v>
       </c>
       <c r="G425" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.15">
@@ -13635,7 +13695,7 @@
         <v>10</v>
       </c>
       <c r="G426" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.15">
@@ -13658,7 +13718,7 @@
         <v>10</v>
       </c>
       <c r="G427" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.15">
@@ -13681,7 +13741,7 @@
         <v>10</v>
       </c>
       <c r="G428" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.15">
@@ -13704,7 +13764,7 @@
         <v>10</v>
       </c>
       <c r="G429" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.15">
@@ -13727,7 +13787,7 @@
         <v>10</v>
       </c>
       <c r="G430" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.15">
@@ -13750,7 +13810,7 @@
         <v>10</v>
       </c>
       <c r="G431" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.15">
@@ -13773,7 +13833,7 @@
         <v>10</v>
       </c>
       <c r="G432" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.15">
@@ -13796,7 +13856,7 @@
         <v>10</v>
       </c>
       <c r="G433" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
@@ -13819,7 +13879,7 @@
         <v>10</v>
       </c>
       <c r="G434" t="s">
-        <v>1191</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.15">
@@ -13842,7 +13902,7 @@
         <v>10</v>
       </c>
       <c r="G435" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.15">
@@ -13865,7 +13925,7 @@
         <v>10</v>
       </c>
       <c r="G436" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.15">
@@ -13888,7 +13948,7 @@
         <v>10</v>
       </c>
       <c r="G437" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.15">
@@ -13911,7 +13971,7 @@
         <v>10</v>
       </c>
       <c r="G438" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.15">
@@ -13974,7 +14034,7 @@
         <v>10</v>
       </c>
       <c r="G441" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.15">
@@ -13997,7 +14057,7 @@
         <v>10</v>
       </c>
       <c r="G442" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.15">
@@ -14060,7 +14120,7 @@
         <v>10</v>
       </c>
       <c r="G445" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.15">
@@ -14083,7 +14143,7 @@
         <v>10</v>
       </c>
       <c r="G446" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.15">
@@ -14106,7 +14166,7 @@
         <v>10</v>
       </c>
       <c r="G447" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.15">
@@ -14129,7 +14189,7 @@
         <v>10</v>
       </c>
       <c r="G448" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.15">
@@ -14152,7 +14212,7 @@
         <v>10</v>
       </c>
       <c r="G449" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.15">
@@ -14175,7 +14235,7 @@
         <v>10</v>
       </c>
       <c r="G450" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.15">
@@ -14195,7 +14255,7 @@
         <v>9</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.15">
@@ -14218,7 +14278,7 @@
         <v>10</v>
       </c>
       <c r="G452" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.15">
@@ -14261,7 +14321,7 @@
         <v>10</v>
       </c>
       <c r="G454" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.15">
@@ -14324,7 +14384,7 @@
         <v>10</v>
       </c>
       <c r="G457" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.15">
@@ -14347,7 +14407,7 @@
         <v>10</v>
       </c>
       <c r="G458" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.15">
@@ -14430,7 +14490,7 @@
         <v>10</v>
       </c>
       <c r="G462" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.15">
@@ -14453,7 +14513,7 @@
         <v>10</v>
       </c>
       <c r="G463" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.15">
@@ -14476,7 +14536,7 @@
         <v>10</v>
       </c>
       <c r="G464" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.15">
@@ -14499,7 +14559,7 @@
         <v>10</v>
       </c>
       <c r="G465" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.15">
@@ -14522,7 +14582,7 @@
         <v>10</v>
       </c>
       <c r="G466" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.15">
@@ -14545,7 +14605,7 @@
         <v>10</v>
       </c>
       <c r="G467" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.15">
@@ -14568,7 +14628,7 @@
         <v>10</v>
       </c>
       <c r="G468" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.15">
@@ -14611,7 +14671,7 @@
         <v>10</v>
       </c>
       <c r="G470" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.15">
@@ -14634,7 +14694,7 @@
         <v>10</v>
       </c>
       <c r="G471" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.15">
@@ -14657,7 +14717,7 @@
         <v>10</v>
       </c>
       <c r="G472" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.15">
@@ -14680,7 +14740,7 @@
         <v>10</v>
       </c>
       <c r="G473" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.15">
@@ -14703,7 +14763,7 @@
         <v>10</v>
       </c>
       <c r="G474" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.15">
@@ -14746,7 +14806,7 @@
         <v>10</v>
       </c>
       <c r="G476" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.15">
@@ -14769,7 +14829,7 @@
         <v>10</v>
       </c>
       <c r="G477" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.15">
@@ -14792,7 +14852,7 @@
         <v>10</v>
       </c>
       <c r="G478" t="s">
-        <v>1191</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.15">
@@ -14815,7 +14875,7 @@
         <v>10</v>
       </c>
       <c r="G479" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.15">
@@ -14838,7 +14898,7 @@
         <v>10</v>
       </c>
       <c r="G480" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.15">
@@ -14861,7 +14921,7 @@
         <v>10</v>
       </c>
       <c r="G481" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.15">
@@ -14884,7 +14944,7 @@
         <v>10</v>
       </c>
       <c r="G482" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.15">
@@ -14907,7 +14967,7 @@
         <v>10</v>
       </c>
       <c r="G483" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.15">
@@ -14930,7 +14990,7 @@
         <v>10</v>
       </c>
       <c r="G484" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.15">
@@ -14953,7 +15013,7 @@
         <v>10</v>
       </c>
       <c r="G485" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.15">
@@ -14976,7 +15036,7 @@
         <v>10</v>
       </c>
       <c r="G486" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.15">
@@ -14999,7 +15059,7 @@
         <v>10</v>
       </c>
       <c r="G487" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.15">
@@ -15022,7 +15082,7 @@
         <v>10</v>
       </c>
       <c r="G488" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.15">
@@ -15045,7 +15105,7 @@
         <v>10</v>
       </c>
       <c r="G489" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.15">
@@ -15068,7 +15128,7 @@
         <v>10</v>
       </c>
       <c r="G490" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.15">
@@ -15111,7 +15171,7 @@
         <v>10</v>
       </c>
       <c r="G492" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.15">
@@ -15134,7 +15194,7 @@
         <v>10</v>
       </c>
       <c r="G493" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.15">
@@ -15177,7 +15237,7 @@
         <v>10</v>
       </c>
       <c r="G495" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.15">
@@ -15220,7 +15280,7 @@
         <v>10</v>
       </c>
       <c r="G497" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.15">
@@ -15263,7 +15323,7 @@
         <v>10</v>
       </c>
       <c r="G499" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.15">
@@ -15286,7 +15346,7 @@
         <v>10</v>
       </c>
       <c r="G500" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.15">
@@ -15309,7 +15369,7 @@
         <v>10</v>
       </c>
       <c r="G501" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.15">
@@ -15329,7 +15389,7 @@
         <v>9</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.15">
@@ -15352,7 +15412,7 @@
         <v>10</v>
       </c>
       <c r="G503" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.15">
@@ -15375,7 +15435,7 @@
         <v>10</v>
       </c>
       <c r="G504" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.15">
@@ -15398,7 +15458,7 @@
         <v>10</v>
       </c>
       <c r="G505" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.15">
@@ -15481,7 +15541,7 @@
         <v>10</v>
       </c>
       <c r="G509" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.15">
@@ -15544,7 +15604,7 @@
         <v>10</v>
       </c>
       <c r="G512" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.15">
@@ -15567,7 +15627,7 @@
         <v>10</v>
       </c>
       <c r="G513" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.15">
@@ -15590,7 +15650,7 @@
         <v>10</v>
       </c>
       <c r="G514" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.15">
@@ -15613,7 +15673,7 @@
         <v>10</v>
       </c>
       <c r="G515" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.15">
@@ -15656,7 +15716,7 @@
         <v>10</v>
       </c>
       <c r="G517" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.15">
@@ -15679,7 +15739,7 @@
         <v>10</v>
       </c>
       <c r="G518" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.15">
@@ -15699,7 +15759,7 @@
         <v>9</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.15">
@@ -15722,7 +15782,7 @@
         <v>10</v>
       </c>
       <c r="G520" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.15">
@@ -15762,7 +15822,7 @@
         <v>9</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.15">
@@ -15802,7 +15862,7 @@
         <v>9</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.15">
@@ -15825,7 +15885,7 @@
         <v>10</v>
       </c>
       <c r="G525" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.15">
@@ -15845,7 +15905,7 @@
         <v>9</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.15">
@@ -15888,7 +15948,7 @@
         <v>10</v>
       </c>
       <c r="G528" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.15">
@@ -15931,7 +15991,7 @@
         <v>10</v>
       </c>
       <c r="G530" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.15">
@@ -15971,7 +16031,7 @@
         <v>9</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.15">
@@ -16011,7 +16071,7 @@
         <v>9</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.15">
@@ -16091,7 +16151,7 @@
         <v>9</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.15">
@@ -16111,7 +16171,7 @@
         <v>9</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.15">
@@ -16134,7 +16194,7 @@
         <v>10</v>
       </c>
       <c r="G540" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.15">
@@ -16157,7 +16217,7 @@
         <v>10</v>
       </c>
       <c r="G541" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.15">
@@ -16180,7 +16240,7 @@
         <v>10</v>
       </c>
       <c r="G542" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.15">
@@ -16243,7 +16303,7 @@
         <v>10</v>
       </c>
       <c r="G545" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.15">
@@ -16266,7 +16326,7 @@
         <v>10</v>
       </c>
       <c r="G546" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.15">
@@ -16286,7 +16346,7 @@
         <v>9</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.15">
@@ -16306,7 +16366,7 @@
         <v>9</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.15">
@@ -16349,7 +16409,7 @@
         <v>10</v>
       </c>
       <c r="G550" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.15">
@@ -16369,7 +16429,7 @@
         <v>9</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.15">
@@ -16389,7 +16449,7 @@
         <v>9</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.15">
@@ -16452,7 +16512,7 @@
         <v>10</v>
       </c>
       <c r="G555" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.15">
@@ -16555,7 +16615,7 @@
         <v>10</v>
       </c>
       <c r="G560" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.15">
@@ -16615,7 +16675,7 @@
         <v>9</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.15">
@@ -16638,7 +16698,7 @@
         <v>10</v>
       </c>
       <c r="G564" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.15">
@@ -16658,7 +16718,7 @@
         <v>9</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.15">
@@ -16698,7 +16758,7 @@
         <v>9</v>
       </c>
       <c r="F567" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.15">
@@ -16741,7 +16801,7 @@
         <v>10</v>
       </c>
       <c r="G569" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.15">
@@ -16784,7 +16844,7 @@
         <v>10</v>
       </c>
       <c r="G571" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.15">
@@ -16804,7 +16864,7 @@
         <v>9</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.15">
@@ -16824,7 +16884,7 @@
         <v>9</v>
       </c>
       <c r="F573" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.15">
@@ -16844,7 +16904,7 @@
         <v>9</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.15">
@@ -16864,7 +16924,7 @@
         <v>9</v>
       </c>
       <c r="F575" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.15">
@@ -16884,7 +16944,7 @@
         <v>9</v>
       </c>
       <c r="F576" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.15">
@@ -16924,7 +16984,7 @@
         <v>9</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.15">
@@ -16947,7 +17007,7 @@
         <v>10</v>
       </c>
       <c r="G579" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.15">
@@ -16967,7 +17027,7 @@
         <v>9</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.15">
@@ -16987,7 +17047,7 @@
         <v>9</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.15">
@@ -17027,7 +17087,7 @@
         <v>9</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.15">
@@ -17047,7 +17107,7 @@
         <v>9</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.15">
@@ -17084,7 +17144,7 @@
         <v>18</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F586" s="2" t="s">
         <v>9</v>
@@ -17107,7 +17167,7 @@
         <v>9</v>
       </c>
       <c r="F587" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.15">
@@ -17127,7 +17187,7 @@
         <v>9</v>
       </c>
       <c r="F588" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.15">
@@ -17144,7 +17204,7 @@
         <v>13</v>
       </c>
       <c r="E589" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F589" s="2" t="s">
         <v>9</v>
@@ -17170,36 +17230,200 @@
         <v>9</v>
       </c>
     </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A591" s="1">
+        <v>665</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E591" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A592" s="1">
+        <v>666</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E592" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A593" s="1">
+        <v>667</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A594" s="1">
+        <v>668</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A595" s="1">
+        <v>669</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A596" s="1">
+        <v>670</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A597" s="1">
+        <v>671</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A598" s="1">
+        <v>672</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E598" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="G1:G590"/>
-  <sortState ref="A2:G590">
-    <sortCondition ref="A564"/>
-  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"简单"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"中等"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"难"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576 G1">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17209,6 +17433,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/LeetCode/leetcode.xlsx
+++ b/LeetCode/leetcode.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhantong/Documents/GitHub/list-leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="960" windowWidth="28560" windowHeight="17380"/>
+    <workbookView xWindow="2025" yWindow="960" windowWidth="28560" windowHeight="17385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$598</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1796,9 +1799,6 @@
     <t>additive-number</t>
   </si>
   <si>
-    <t>Range Sum Query - Mutable</t>
-  </si>
-  <si>
     <t>range-sum-query-mutable</t>
   </si>
   <si>
@@ -3642,10 +3642,6 @@
   </si>
   <si>
     <t>bulb-switcher-ii</t>
-  </si>
-  <si>
-    <t>熟练程度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>熟练</t>
@@ -3673,13 +3669,21 @@
   </si>
   <si>
     <t>熟练</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range Sum Query - Mutable</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -3694,6 +3698,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3736,7 +3741,7 @@
     <cellStyle name="str" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3809,27 +3814,14 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC2EFCF"/>
-          <bgColor rgb="FFC2EFCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4123,14 +4115,14 @@
   <dimension ref="A1:L598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4177,10 +4169,10 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="L2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4203,10 +4195,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="L3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -4229,10 +4221,10 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="L4" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -4255,10 +4247,10 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="L5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -4281,7 +4273,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -4304,7 +4296,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -4327,7 +4319,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -4350,7 +4342,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -4373,7 +4365,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -4396,7 +4388,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -4419,7 +4411,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -4442,7 +4434,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -4465,7 +4457,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -4488,7 +4480,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -4511,7 +4503,7 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -4534,7 +4526,7 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -4557,7 +4549,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -4580,7 +4572,7 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -4603,7 +4595,7 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -4626,7 +4618,7 @@
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -4649,7 +4641,7 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -4672,7 +4664,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -4695,7 +4687,7 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -4718,7 +4710,7 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -4741,7 +4733,7 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -4764,7 +4756,7 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -4787,7 +4779,7 @@
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -4810,7 +4802,7 @@
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -4833,7 +4825,7 @@
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -4856,7 +4848,7 @@
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -4879,7 +4871,7 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -4902,7 +4894,7 @@
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -4925,7 +4917,7 @@
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -4948,7 +4940,7 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -4971,7 +4963,7 @@
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -4994,7 +4986,7 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -5017,7 +5009,7 @@
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -5060,7 +5052,7 @@
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -5083,7 +5075,7 @@
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -5106,7 +5098,7 @@
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -5129,7 +5121,7 @@
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -5152,7 +5144,7 @@
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -5175,7 +5167,7 @@
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -5198,7 +5190,7 @@
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -5221,7 +5213,7 @@
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -5244,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -5267,7 +5259,7 @@
         <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -5290,7 +5282,7 @@
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -5313,7 +5305,7 @@
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -5336,7 +5328,7 @@
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -5359,7 +5351,7 @@
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -5382,7 +5374,7 @@
         <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -5405,7 +5397,7 @@
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -5428,7 +5420,7 @@
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -5451,7 +5443,7 @@
         <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -5474,7 +5466,7 @@
         <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -5497,7 +5489,7 @@
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -5520,7 +5512,7 @@
         <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -5543,7 +5535,7 @@
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -5566,7 +5558,7 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -5589,7 +5581,7 @@
         <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -5612,7 +5604,7 @@
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -5635,7 +5627,7 @@
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -5658,7 +5650,7 @@
         <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -5681,7 +5673,7 @@
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -5704,7 +5696,7 @@
         <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -5727,7 +5719,7 @@
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -5750,7 +5742,7 @@
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -5773,7 +5765,7 @@
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -5796,7 +5788,7 @@
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -5819,7 +5811,7 @@
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -5842,7 +5834,7 @@
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -5865,7 +5857,7 @@
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -5888,7 +5880,7 @@
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -5911,7 +5903,7 @@
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -5934,7 +5926,7 @@
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -5957,7 +5949,7 @@
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -5980,7 +5972,7 @@
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -6003,7 +5995,7 @@
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
@@ -6026,7 +6018,7 @@
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -6049,7 +6041,7 @@
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -6072,7 +6064,7 @@
         <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -6095,7 +6087,7 @@
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -6118,7 +6110,7 @@
         <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -6141,7 +6133,7 @@
         <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -6164,7 +6156,7 @@
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -6187,7 +6179,7 @@
         <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
@@ -6210,7 +6202,7 @@
         <v>10</v>
       </c>
       <c r="G90" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
@@ -6233,7 +6225,7 @@
         <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -6256,7 +6248,7 @@
         <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -6279,7 +6271,7 @@
         <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
@@ -6302,7 +6294,7 @@
         <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -6325,7 +6317,7 @@
         <v>10</v>
       </c>
       <c r="G95" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
@@ -6348,7 +6340,7 @@
         <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
@@ -6371,7 +6363,7 @@
         <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -6394,7 +6386,7 @@
         <v>10</v>
       </c>
       <c r="G98" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -6417,7 +6409,7 @@
         <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
@@ -6440,7 +6432,7 @@
         <v>10</v>
       </c>
       <c r="G100" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -6463,7 +6455,7 @@
         <v>10</v>
       </c>
       <c r="G101" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
@@ -6486,7 +6478,7 @@
         <v>10</v>
       </c>
       <c r="G102" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
@@ -6509,7 +6501,7 @@
         <v>10</v>
       </c>
       <c r="G103" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -6532,7 +6524,7 @@
         <v>10</v>
       </c>
       <c r="G104" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -6555,7 +6547,7 @@
         <v>10</v>
       </c>
       <c r="G105" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
@@ -6578,7 +6570,7 @@
         <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -6601,7 +6593,7 @@
         <v>10</v>
       </c>
       <c r="G107" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
@@ -6624,7 +6616,7 @@
         <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
@@ -6647,7 +6639,7 @@
         <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -6670,7 +6662,7 @@
         <v>10</v>
       </c>
       <c r="G110" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -6693,7 +6685,7 @@
         <v>10</v>
       </c>
       <c r="G111" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
@@ -6716,7 +6708,7 @@
         <v>10</v>
       </c>
       <c r="G112" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -6739,7 +6731,7 @@
         <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
@@ -6762,7 +6754,7 @@
         <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
@@ -6785,7 +6777,7 @@
         <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -6808,7 +6800,7 @@
         <v>10</v>
       </c>
       <c r="G116" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
@@ -6831,7 +6823,7 @@
         <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
@@ -6854,7 +6846,7 @@
         <v>10</v>
       </c>
       <c r="G118" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -6877,7 +6869,7 @@
         <v>10</v>
       </c>
       <c r="G119" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
@@ -6900,7 +6892,7 @@
         <v>10</v>
       </c>
       <c r="G120" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
@@ -6923,7 +6915,7 @@
         <v>10</v>
       </c>
       <c r="G121" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -6946,7 +6938,7 @@
         <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -6969,7 +6961,7 @@
         <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
@@ -6992,7 +6984,7 @@
         <v>10</v>
       </c>
       <c r="G124" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -7015,7 +7007,7 @@
         <v>10</v>
       </c>
       <c r="G125" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
@@ -7038,7 +7030,7 @@
         <v>10</v>
       </c>
       <c r="G126" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
@@ -7061,7 +7053,7 @@
         <v>10</v>
       </c>
       <c r="G127" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -7084,7 +7076,7 @@
         <v>10</v>
       </c>
       <c r="G128" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -7107,7 +7099,7 @@
         <v>10</v>
       </c>
       <c r="G129" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
@@ -7130,7 +7122,7 @@
         <v>10</v>
       </c>
       <c r="G130" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
@@ -7153,7 +7145,7 @@
         <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
@@ -7176,7 +7168,7 @@
         <v>10</v>
       </c>
       <c r="G132" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
@@ -7199,7 +7191,7 @@
         <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -7222,7 +7214,7 @@
         <v>10</v>
       </c>
       <c r="G134" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
@@ -7245,7 +7237,7 @@
         <v>10</v>
       </c>
       <c r="G135" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
@@ -7268,7 +7260,7 @@
         <v>10</v>
       </c>
       <c r="G136" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -7291,7 +7283,7 @@
         <v>10</v>
       </c>
       <c r="G137" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
@@ -7314,7 +7306,7 @@
         <v>10</v>
       </c>
       <c r="G138" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
@@ -7337,7 +7329,7 @@
         <v>10</v>
       </c>
       <c r="G139" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -7360,7 +7352,7 @@
         <v>10</v>
       </c>
       <c r="G140" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
@@ -7383,7 +7375,7 @@
         <v>10</v>
       </c>
       <c r="G141" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
@@ -7406,7 +7398,7 @@
         <v>10</v>
       </c>
       <c r="G142" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -7429,7 +7421,7 @@
         <v>10</v>
       </c>
       <c r="G143" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
@@ -7452,7 +7444,7 @@
         <v>10</v>
       </c>
       <c r="G144" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
@@ -7475,7 +7467,7 @@
         <v>10</v>
       </c>
       <c r="G145" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
@@ -7498,7 +7490,7 @@
         <v>10</v>
       </c>
       <c r="G146" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
@@ -7521,7 +7513,7 @@
         <v>10</v>
       </c>
       <c r="G147" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
@@ -7544,7 +7536,7 @@
         <v>10</v>
       </c>
       <c r="G148" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -7590,7 +7582,7 @@
         <v>10</v>
       </c>
       <c r="G150" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
@@ -7613,7 +7605,7 @@
         <v>10</v>
       </c>
       <c r="G151" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -7636,7 +7628,7 @@
         <v>10</v>
       </c>
       <c r="G152" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
@@ -7659,7 +7651,7 @@
         <v>10</v>
       </c>
       <c r="G153" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
@@ -7682,7 +7674,7 @@
         <v>10</v>
       </c>
       <c r="G154" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -7705,7 +7697,7 @@
         <v>10</v>
       </c>
       <c r="G155" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
@@ -7728,7 +7720,7 @@
         <v>10</v>
       </c>
       <c r="G156" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
@@ -7831,7 +7823,7 @@
         <v>10</v>
       </c>
       <c r="G161" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
@@ -7874,7 +7866,7 @@
         <v>10</v>
       </c>
       <c r="G163" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -7917,7 +7909,7 @@
         <v>10</v>
       </c>
       <c r="G165" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
@@ -7940,7 +7932,7 @@
         <v>10</v>
       </c>
       <c r="G166" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
@@ -7963,7 +7955,7 @@
         <v>10</v>
       </c>
       <c r="G167" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
@@ -7986,7 +7978,7 @@
         <v>10</v>
       </c>
       <c r="G168" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
@@ -8009,7 +8001,7 @@
         <v>10</v>
       </c>
       <c r="G169" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -8032,7 +8024,7 @@
         <v>10</v>
       </c>
       <c r="G170" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
@@ -8075,7 +8067,7 @@
         <v>10</v>
       </c>
       <c r="G172" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -8098,7 +8090,7 @@
         <v>10</v>
       </c>
       <c r="G173" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
@@ -8121,7 +8113,7 @@
         <v>10</v>
       </c>
       <c r="G174" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
@@ -8144,7 +8136,7 @@
         <v>10</v>
       </c>
       <c r="G175" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
@@ -8167,7 +8159,7 @@
         <v>10</v>
       </c>
       <c r="G176" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
@@ -8210,7 +8202,7 @@
         <v>10</v>
       </c>
       <c r="G178" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
@@ -8233,7 +8225,7 @@
         <v>10</v>
       </c>
       <c r="G179" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
@@ -8256,7 +8248,7 @@
         <v>10</v>
       </c>
       <c r="G180" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
@@ -8279,7 +8271,7 @@
         <v>10</v>
       </c>
       <c r="G181" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
@@ -8302,7 +8294,7 @@
         <v>10</v>
       </c>
       <c r="G182" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
@@ -8325,7 +8317,7 @@
         <v>10</v>
       </c>
       <c r="G183" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
@@ -8348,7 +8340,7 @@
         <v>10</v>
       </c>
       <c r="G184" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -8371,7 +8363,7 @@
         <v>10</v>
       </c>
       <c r="G185" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
@@ -8394,7 +8386,7 @@
         <v>10</v>
       </c>
       <c r="G186" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
@@ -8417,7 +8409,7 @@
         <v>10</v>
       </c>
       <c r="G187" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
@@ -8440,7 +8432,7 @@
         <v>10</v>
       </c>
       <c r="G188" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
@@ -8463,7 +8455,7 @@
         <v>10</v>
       </c>
       <c r="G189" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
@@ -8486,7 +8478,7 @@
         <v>10</v>
       </c>
       <c r="G190" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
@@ -8509,7 +8501,7 @@
         <v>10</v>
       </c>
       <c r="G191" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
@@ -8532,7 +8524,7 @@
         <v>10</v>
       </c>
       <c r="G192" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
@@ -8555,7 +8547,7 @@
         <v>10</v>
       </c>
       <c r="G193" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
@@ -8578,7 +8570,7 @@
         <v>10</v>
       </c>
       <c r="G194" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
@@ -8601,7 +8593,7 @@
         <v>10</v>
       </c>
       <c r="G195" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
@@ -8624,7 +8616,7 @@
         <v>10</v>
       </c>
       <c r="G196" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
@@ -8647,7 +8639,7 @@
         <v>10</v>
       </c>
       <c r="G197" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
@@ -8670,7 +8662,7 @@
         <v>10</v>
       </c>
       <c r="G198" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
@@ -8693,7 +8685,7 @@
         <v>10</v>
       </c>
       <c r="G199" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -8716,7 +8708,7 @@
         <v>10</v>
       </c>
       <c r="G200" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
@@ -8739,7 +8731,7 @@
         <v>10</v>
       </c>
       <c r="G201" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.15">
@@ -8762,7 +8754,7 @@
         <v>10</v>
       </c>
       <c r="G202" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
@@ -8785,7 +8777,7 @@
         <v>10</v>
       </c>
       <c r="G203" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
@@ -8808,7 +8800,7 @@
         <v>10</v>
       </c>
       <c r="G204" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
@@ -8854,7 +8846,7 @@
         <v>10</v>
       </c>
       <c r="G206" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.15">
@@ -8897,7 +8889,7 @@
         <v>10</v>
       </c>
       <c r="G208" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
@@ -8920,7 +8912,7 @@
         <v>10</v>
       </c>
       <c r="G209" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
@@ -8943,7 +8935,7 @@
         <v>10</v>
       </c>
       <c r="G210" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.15">
@@ -8966,7 +8958,7 @@
         <v>10</v>
       </c>
       <c r="G211" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
@@ -8989,7 +8981,7 @@
         <v>10</v>
       </c>
       <c r="G212" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
@@ -9012,7 +9004,7 @@
         <v>10</v>
       </c>
       <c r="G213" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
@@ -9058,7 +9050,7 @@
         <v>10</v>
       </c>
       <c r="G215" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.15">
@@ -9081,7 +9073,7 @@
         <v>10</v>
       </c>
       <c r="G216" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.15">
@@ -9104,7 +9096,7 @@
         <v>10</v>
       </c>
       <c r="G217" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
@@ -9127,7 +9119,7 @@
         <v>10</v>
       </c>
       <c r="G218" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
@@ -9150,7 +9142,7 @@
         <v>10</v>
       </c>
       <c r="G219" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.15">
@@ -9173,7 +9165,7 @@
         <v>10</v>
       </c>
       <c r="G220" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
@@ -9196,7 +9188,7 @@
         <v>10</v>
       </c>
       <c r="G221" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.15">
@@ -9219,7 +9211,7 @@
         <v>10</v>
       </c>
       <c r="G222" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
@@ -9242,7 +9234,7 @@
         <v>10</v>
       </c>
       <c r="G223" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
@@ -9265,7 +9257,7 @@
         <v>10</v>
       </c>
       <c r="G224" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
@@ -9288,7 +9280,7 @@
         <v>10</v>
       </c>
       <c r="G225" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.15">
@@ -9311,7 +9303,7 @@
         <v>10</v>
       </c>
       <c r="G226" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
@@ -9334,7 +9326,7 @@
         <v>10</v>
       </c>
       <c r="G227" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
@@ -9637,7 +9629,7 @@
         <v>10</v>
       </c>
       <c r="G242" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
@@ -9660,7 +9652,7 @@
         <v>10</v>
       </c>
       <c r="G243" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.15">
@@ -9703,7 +9695,7 @@
         <v>10</v>
       </c>
       <c r="G245" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.15">
@@ -9746,7 +9738,7 @@
         <v>10</v>
       </c>
       <c r="G247" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
@@ -9769,7 +9761,7 @@
         <v>10</v>
       </c>
       <c r="G248" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
@@ -9852,7 +9844,7 @@
         <v>10</v>
       </c>
       <c r="G252" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.15">
@@ -9955,7 +9947,7 @@
         <v>10</v>
       </c>
       <c r="G257" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
@@ -9978,7 +9970,7 @@
         <v>10</v>
       </c>
       <c r="G258" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
@@ -10001,7 +9993,7 @@
         <v>10</v>
       </c>
       <c r="G259" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -10064,7 +10056,7 @@
         <v>10</v>
       </c>
       <c r="G262" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
@@ -10087,7 +10079,7 @@
         <v>10</v>
       </c>
       <c r="G263" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
@@ -10150,7 +10142,7 @@
         <v>10</v>
       </c>
       <c r="G266" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
@@ -10173,7 +10165,7 @@
         <v>10</v>
       </c>
       <c r="G267" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
@@ -10196,7 +10188,7 @@
         <v>10</v>
       </c>
       <c r="G268" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
@@ -10259,7 +10251,7 @@
         <v>10</v>
       </c>
       <c r="G271" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.15">
@@ -10302,7 +10294,7 @@
         <v>10</v>
       </c>
       <c r="G273" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.15">
@@ -10325,7 +10317,7 @@
         <v>10</v>
       </c>
       <c r="G274" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
@@ -10368,7 +10360,7 @@
         <v>10</v>
       </c>
       <c r="G276" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.15">
@@ -10431,7 +10423,7 @@
         <v>10</v>
       </c>
       <c r="G279" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.15">
@@ -10474,7 +10466,7 @@
         <v>10</v>
       </c>
       <c r="G281" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.15">
@@ -10517,7 +10509,7 @@
         <v>10</v>
       </c>
       <c r="G283" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
@@ -10540,7 +10532,7 @@
         <v>10</v>
       </c>
       <c r="G284" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.15">
@@ -10603,7 +10595,7 @@
         <v>10</v>
       </c>
       <c r="G287" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.15">
@@ -10626,7 +10618,7 @@
         <v>10</v>
       </c>
       <c r="G288" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.15">
@@ -10669,7 +10661,7 @@
         <v>10</v>
       </c>
       <c r="G290" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.15">
@@ -10677,11 +10669,11 @@
         <v>307</v>
       </c>
       <c r="B291" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C291" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="D291" s="2" t="s">
         <v>13</v>
       </c>
@@ -10692,7 +10684,7 @@
         <v>10</v>
       </c>
       <c r="G291" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.15">
@@ -10700,10 +10692,10 @@
         <v>308</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>18</v>
@@ -10720,11 +10712,11 @@
         <v>309</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>594</v>
-      </c>
       <c r="D293" s="2" t="s">
         <v>13</v>
       </c>
@@ -10735,7 +10727,7 @@
         <v>10</v>
       </c>
       <c r="G293" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.15">
@@ -10743,11 +10735,11 @@
         <v>310</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>596</v>
-      </c>
       <c r="D294" s="2" t="s">
         <v>13</v>
       </c>
@@ -10758,7 +10750,7 @@
         <v>10</v>
       </c>
       <c r="G294" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.15">
@@ -10766,10 +10758,10 @@
         <v>311</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C295" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>13</v>
@@ -10786,10 +10778,10 @@
         <v>312</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>18</v>
@@ -10801,7 +10793,7 @@
         <v>10</v>
       </c>
       <c r="G296" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.15">
@@ -10809,11 +10801,11 @@
         <v>313</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C297" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="D297" s="2" t="s">
         <v>13</v>
       </c>
@@ -10824,7 +10816,7 @@
         <v>10</v>
       </c>
       <c r="G297" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.15">
@@ -10832,10 +10824,10 @@
         <v>314</v>
       </c>
       <c r="B298" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C298" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>13</v>
@@ -10852,10 +10844,10 @@
         <v>315</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>18</v>
@@ -10867,7 +10859,7 @@
         <v>10</v>
       </c>
       <c r="G299" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.15">
@@ -10875,10 +10867,10 @@
         <v>316</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C300" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>18</v>
@@ -10890,7 +10882,7 @@
         <v>10</v>
       </c>
       <c r="G300" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.15">
@@ -10898,10 +10890,10 @@
         <v>317</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>18</v>
@@ -10918,11 +10910,11 @@
         <v>318</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C302" s="2" t="s">
-        <v>612</v>
-      </c>
       <c r="D302" s="2" t="s">
         <v>13</v>
       </c>
@@ -10933,7 +10925,7 @@
         <v>10</v>
       </c>
       <c r="G302" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.15">
@@ -10941,13 +10933,13 @@
         <v>319</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C303" s="2" t="s">
-        <v>614</v>
-      </c>
       <c r="D303" s="2" t="s">
-        <v>13</v>
+        <v>1212</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>9</v>
@@ -10956,7 +10948,7 @@
         <v>10</v>
       </c>
       <c r="G303" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.15">
@@ -10964,10 +10956,10 @@
         <v>320</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>13</v>
@@ -10984,10 +10976,10 @@
         <v>321</v>
       </c>
       <c r="B305" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C305" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>18</v>
@@ -10999,7 +10991,7 @@
         <v>10</v>
       </c>
       <c r="G305" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.15">
@@ -11007,11 +10999,11 @@
         <v>322</v>
       </c>
       <c r="B306" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C306" s="2" t="s">
-        <v>620</v>
-      </c>
       <c r="D306" s="2" t="s">
         <v>13</v>
       </c>
@@ -11022,7 +11014,7 @@
         <v>10</v>
       </c>
       <c r="G306" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.15">
@@ -11030,10 +11022,10 @@
         <v>323</v>
       </c>
       <c r="B307" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>13</v>
@@ -11050,11 +11042,11 @@
         <v>324</v>
       </c>
       <c r="B308" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C308" s="2" t="s">
-        <v>624</v>
-      </c>
       <c r="D308" s="2" t="s">
         <v>13</v>
       </c>
@@ -11065,7 +11057,7 @@
         <v>10</v>
       </c>
       <c r="G308" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
@@ -11073,10 +11065,10 @@
         <v>325</v>
       </c>
       <c r="B309" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>13</v>
@@ -11093,10 +11085,10 @@
         <v>326</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>8</v>
@@ -11108,7 +11100,7 @@
         <v>10</v>
       </c>
       <c r="G310" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.15">
@@ -11116,10 +11108,10 @@
         <v>327</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C311" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>18</v>
@@ -11136,11 +11128,11 @@
         <v>328</v>
       </c>
       <c r="B312" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C312" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C312" s="2" t="s">
-        <v>632</v>
-      </c>
       <c r="D312" s="2" t="s">
         <v>13</v>
       </c>
@@ -11151,7 +11143,7 @@
         <v>10</v>
       </c>
       <c r="G312" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.15">
@@ -11159,10 +11151,10 @@
         <v>329</v>
       </c>
       <c r="B313" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C313" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>18</v>
@@ -11174,7 +11166,7 @@
         <v>10</v>
       </c>
       <c r="G313" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
@@ -11182,10 +11174,10 @@
         <v>330</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C314" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>18</v>
@@ -11197,7 +11189,7 @@
         <v>10</v>
       </c>
       <c r="G314" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.15">
@@ -11205,11 +11197,11 @@
         <v>331</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C315" s="2" t="s">
-        <v>638</v>
-      </c>
       <c r="D315" s="2" t="s">
         <v>13</v>
       </c>
@@ -11220,7 +11212,7 @@
         <v>10</v>
       </c>
       <c r="G315" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.15">
@@ -11228,11 +11220,11 @@
         <v>332</v>
       </c>
       <c r="B316" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C316" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C316" s="2" t="s">
-        <v>640</v>
-      </c>
       <c r="D316" s="2" t="s">
         <v>13</v>
       </c>
@@ -11243,7 +11235,7 @@
         <v>10</v>
       </c>
       <c r="G316" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
@@ -11251,10 +11243,10 @@
         <v>333</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>13</v>
@@ -11271,11 +11263,11 @@
         <v>334</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C318" s="2" t="s">
-        <v>644</v>
-      </c>
       <c r="D318" s="2" t="s">
         <v>13</v>
       </c>
@@ -11286,7 +11278,7 @@
         <v>10</v>
       </c>
       <c r="G318" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.15">
@@ -11294,10 +11286,10 @@
         <v>335</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>18</v>
@@ -11309,7 +11301,7 @@
         <v>10</v>
       </c>
       <c r="G319" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
@@ -11317,10 +11309,10 @@
         <v>336</v>
       </c>
       <c r="B320" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C320" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>18</v>
@@ -11332,7 +11324,7 @@
         <v>10</v>
       </c>
       <c r="G320" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.15">
@@ -11340,11 +11332,11 @@
         <v>337</v>
       </c>
       <c r="B321" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C321" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="C321" s="2" t="s">
-        <v>650</v>
-      </c>
       <c r="D321" s="2" t="s">
         <v>13</v>
       </c>
@@ -11355,7 +11347,7 @@
         <v>10</v>
       </c>
       <c r="G321" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.15">
@@ -11363,11 +11355,11 @@
         <v>338</v>
       </c>
       <c r="B322" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C322" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="C322" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="D322" s="2" t="s">
         <v>13</v>
       </c>
@@ -11378,7 +11370,7 @@
         <v>10</v>
       </c>
       <c r="G322" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
@@ -11386,10 +11378,10 @@
         <v>339</v>
       </c>
       <c r="B323" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C323" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>8</v>
@@ -11406,10 +11398,10 @@
         <v>340</v>
       </c>
       <c r="B324" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C324" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>18</v>
@@ -11426,11 +11418,11 @@
         <v>341</v>
       </c>
       <c r="B325" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C325" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C325" s="2" t="s">
-        <v>658</v>
-      </c>
       <c r="D325" s="2" t="s">
         <v>13</v>
       </c>
@@ -11441,7 +11433,7 @@
         <v>10</v>
       </c>
       <c r="G325" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.15">
@@ -11449,10 +11441,10 @@
         <v>342</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>8</v>
@@ -11464,7 +11456,7 @@
         <v>10</v>
       </c>
       <c r="G326" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.15">
@@ -11472,11 +11464,11 @@
         <v>343</v>
       </c>
       <c r="B327" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C327" s="2" t="s">
-        <v>662</v>
-      </c>
       <c r="D327" s="2" t="s">
         <v>13</v>
       </c>
@@ -11487,7 +11479,7 @@
         <v>10</v>
       </c>
       <c r="G327" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.15">
@@ -11495,10 +11487,10 @@
         <v>344</v>
       </c>
       <c r="B328" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C328" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>8</v>
@@ -11510,7 +11502,7 @@
         <v>10</v>
       </c>
       <c r="G328" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
@@ -11518,10 +11510,10 @@
         <v>345</v>
       </c>
       <c r="B329" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>8</v>
@@ -11533,7 +11525,7 @@
         <v>10</v>
       </c>
       <c r="G329" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.15">
@@ -11541,10 +11533,10 @@
         <v>346</v>
       </c>
       <c r="B330" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>8</v>
@@ -11561,11 +11553,11 @@
         <v>347</v>
       </c>
       <c r="B331" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C331" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="C331" s="2" t="s">
-        <v>670</v>
-      </c>
       <c r="D331" s="2" t="s">
         <v>13</v>
       </c>
@@ -11576,7 +11568,7 @@
         <v>10</v>
       </c>
       <c r="G331" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.15">
@@ -11584,10 +11576,10 @@
         <v>348</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>13</v>
@@ -11604,10 +11596,10 @@
         <v>349</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>8</v>
@@ -11619,7 +11611,7 @@
         <v>10</v>
       </c>
       <c r="G333" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.15">
@@ -11627,10 +11619,10 @@
         <v>350</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>8</v>
@@ -11642,7 +11634,7 @@
         <v>10</v>
       </c>
       <c r="G334" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
@@ -11650,10 +11642,10 @@
         <v>351</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>13</v>
@@ -11670,10 +11662,10 @@
         <v>352</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>18</v>
@@ -11685,7 +11677,7 @@
         <v>10</v>
       </c>
       <c r="G336" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.15">
@@ -11693,10 +11685,10 @@
         <v>353</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>13</v>
@@ -11713,10 +11705,10 @@
         <v>354</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>18</v>
@@ -11728,7 +11720,7 @@
         <v>10</v>
       </c>
       <c r="G338" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.15">
@@ -11736,11 +11728,11 @@
         <v>355</v>
       </c>
       <c r="B339" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>686</v>
-      </c>
       <c r="D339" s="2" t="s">
         <v>13</v>
       </c>
@@ -11751,7 +11743,7 @@
         <v>10</v>
       </c>
       <c r="G339" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.15">
@@ -11759,10 +11751,10 @@
         <v>356</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>13</v>
@@ -11779,11 +11771,11 @@
         <v>357</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="C341" s="2" t="s">
-        <v>690</v>
-      </c>
       <c r="D341" s="2" t="s">
         <v>13</v>
       </c>
@@ -11794,7 +11786,7 @@
         <v>10</v>
       </c>
       <c r="G341" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.15">
@@ -11802,10 +11794,10 @@
         <v>358</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>18</v>
@@ -11822,10 +11814,10 @@
         <v>359</v>
       </c>
       <c r="B343" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>8</v>
@@ -11842,10 +11834,10 @@
         <v>360</v>
       </c>
       <c r="B344" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>696</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>13</v>
@@ -11862,10 +11854,10 @@
         <v>361</v>
       </c>
       <c r="B345" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C345" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>13</v>
@@ -11882,10 +11874,10 @@
         <v>362</v>
       </c>
       <c r="B346" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>13</v>
@@ -11902,10 +11894,10 @@
         <v>363</v>
       </c>
       <c r="B347" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C347" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>18</v>
@@ -11917,7 +11909,7 @@
         <v>10</v>
       </c>
       <c r="G347" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.15">
@@ -11925,10 +11917,10 @@
         <v>364</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>13</v>
@@ -11945,11 +11937,11 @@
         <v>365</v>
       </c>
       <c r="B349" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C349" s="2" t="s">
-        <v>706</v>
-      </c>
       <c r="D349" s="2" t="s">
         <v>13</v>
       </c>
@@ -11960,7 +11952,7 @@
         <v>10</v>
       </c>
       <c r="G349" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
@@ -11968,10 +11960,10 @@
         <v>366</v>
       </c>
       <c r="B350" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>13</v>
@@ -11988,10 +11980,10 @@
         <v>367</v>
       </c>
       <c r="B351" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>710</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>8</v>
@@ -12003,7 +11995,7 @@
         <v>10</v>
       </c>
       <c r="G351" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.15">
@@ -12011,11 +12003,11 @@
         <v>368</v>
       </c>
       <c r="B352" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C352" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="C352" s="2" t="s">
-        <v>712</v>
-      </c>
       <c r="D352" s="2" t="s">
         <v>13</v>
       </c>
@@ -12026,7 +12018,7 @@
         <v>10</v>
       </c>
       <c r="G352" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
@@ -12034,10 +12026,10 @@
         <v>369</v>
       </c>
       <c r="B353" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C353" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>13</v>
@@ -12054,10 +12046,10 @@
         <v>370</v>
       </c>
       <c r="B354" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C354" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>13</v>
@@ -12074,10 +12066,10 @@
         <v>371</v>
       </c>
       <c r="B355" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C355" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>718</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>8</v>
@@ -12089,7 +12081,7 @@
         <v>10</v>
       </c>
       <c r="G355" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.15">
@@ -12097,10 +12089,10 @@
         <v>372</v>
       </c>
       <c r="B356" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>13</v>
@@ -12120,11 +12112,11 @@
         <v>373</v>
       </c>
       <c r="B357" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="C357" s="2" t="s">
-        <v>722</v>
-      </c>
       <c r="D357" s="2" t="s">
         <v>13</v>
       </c>
@@ -12135,7 +12127,7 @@
         <v>10</v>
       </c>
       <c r="G357" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.15">
@@ -12143,10 +12135,10 @@
         <v>374</v>
       </c>
       <c r="B358" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C358" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>724</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>8</v>
@@ -12158,7 +12150,7 @@
         <v>10</v>
       </c>
       <c r="G358" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.15">
@@ -12166,11 +12158,11 @@
         <v>375</v>
       </c>
       <c r="B359" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="C359" s="2" t="s">
-        <v>726</v>
-      </c>
       <c r="D359" s="2" t="s">
         <v>13</v>
       </c>
@@ -12181,7 +12173,7 @@
         <v>10</v>
       </c>
       <c r="G359" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.15">
@@ -12189,11 +12181,11 @@
         <v>376</v>
       </c>
       <c r="B360" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C360" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C360" s="2" t="s">
-        <v>728</v>
-      </c>
       <c r="D360" s="2" t="s">
         <v>13</v>
       </c>
@@ -12204,7 +12196,7 @@
         <v>10</v>
       </c>
       <c r="G360" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.15">
@@ -12212,11 +12204,11 @@
         <v>377</v>
       </c>
       <c r="B361" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="C361" s="2" t="s">
-        <v>730</v>
-      </c>
       <c r="D361" s="2" t="s">
         <v>13</v>
       </c>
@@ -12227,7 +12219,7 @@
         <v>10</v>
       </c>
       <c r="G361" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.15">
@@ -12235,10 +12227,10 @@
         <v>378</v>
       </c>
       <c r="B362" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C362" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>13</v>
@@ -12258,10 +12250,10 @@
         <v>379</v>
       </c>
       <c r="B363" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>13</v>
@@ -12278,11 +12270,11 @@
         <v>380</v>
       </c>
       <c r="B364" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C364" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="C364" s="2" t="s">
-        <v>736</v>
-      </c>
       <c r="D364" s="2" t="s">
         <v>13</v>
       </c>
@@ -12293,7 +12285,7 @@
         <v>10</v>
       </c>
       <c r="G364" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
@@ -12301,10 +12293,10 @@
         <v>381</v>
       </c>
       <c r="B365" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>18</v>
@@ -12316,7 +12308,7 @@
         <v>10</v>
       </c>
       <c r="G365" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.15">
@@ -12324,11 +12316,11 @@
         <v>382</v>
       </c>
       <c r="B366" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C366" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C366" s="2" t="s">
-        <v>740</v>
-      </c>
       <c r="D366" s="2" t="s">
         <v>13</v>
       </c>
@@ -12339,7 +12331,7 @@
         <v>10</v>
       </c>
       <c r="G366" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.15">
@@ -12347,10 +12339,10 @@
         <v>383</v>
       </c>
       <c r="B367" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>8</v>
@@ -12362,7 +12354,7 @@
         <v>10</v>
       </c>
       <c r="G367" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
@@ -12370,11 +12362,11 @@
         <v>384</v>
       </c>
       <c r="B368" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C368" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="C368" s="2" t="s">
-        <v>744</v>
-      </c>
       <c r="D368" s="2" t="s">
         <v>13</v>
       </c>
@@ -12385,7 +12377,7 @@
         <v>10</v>
       </c>
       <c r="G368" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.15">
@@ -12393,11 +12385,11 @@
         <v>385</v>
       </c>
       <c r="B369" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C369" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="C369" s="2" t="s">
-        <v>746</v>
-      </c>
       <c r="D369" s="2" t="s">
         <v>13</v>
       </c>
@@ -12408,7 +12400,7 @@
         <v>10</v>
       </c>
       <c r="G369" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.15">
@@ -12416,11 +12408,11 @@
         <v>386</v>
       </c>
       <c r="B370" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="C370" s="2" t="s">
-        <v>748</v>
-      </c>
       <c r="D370" s="2" t="s">
         <v>13</v>
       </c>
@@ -12431,7 +12423,7 @@
         <v>10</v>
       </c>
       <c r="G370" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.15">
@@ -12439,10 +12431,10 @@
         <v>387</v>
       </c>
       <c r="B371" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C371" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>8</v>
@@ -12454,7 +12446,7 @@
         <v>10</v>
       </c>
       <c r="G371" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.15">
@@ -12462,10 +12454,10 @@
         <v>388</v>
       </c>
       <c r="B372" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C372" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>13</v>
@@ -12485,10 +12477,10 @@
         <v>389</v>
       </c>
       <c r="B373" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C373" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>754</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>8</v>
@@ -12500,7 +12492,7 @@
         <v>10</v>
       </c>
       <c r="G373" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.15">
@@ -12508,11 +12500,11 @@
         <v>390</v>
       </c>
       <c r="B374" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C374" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="C374" s="2" t="s">
-        <v>756</v>
-      </c>
       <c r="D374" s="2" t="s">
         <v>13</v>
       </c>
@@ -12523,7 +12515,7 @@
         <v>10</v>
       </c>
       <c r="G374" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.15">
@@ -12531,10 +12523,10 @@
         <v>391</v>
       </c>
       <c r="B375" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C375" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>18</v>
@@ -12546,7 +12538,7 @@
         <v>10</v>
       </c>
       <c r="G375" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.15">
@@ -12554,11 +12546,11 @@
         <v>392</v>
       </c>
       <c r="B376" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C376" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="C376" s="2" t="s">
-        <v>760</v>
-      </c>
       <c r="D376" s="2" t="s">
         <v>13</v>
       </c>
@@ -12569,7 +12561,7 @@
         <v>10</v>
       </c>
       <c r="G376" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.15">
@@ -12577,11 +12569,11 @@
         <v>393</v>
       </c>
       <c r="B377" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C377" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="C377" s="2" t="s">
-        <v>762</v>
-      </c>
       <c r="D377" s="2" t="s">
         <v>13</v>
       </c>
@@ -12592,7 +12584,7 @@
         <v>10</v>
       </c>
       <c r="G377" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.15">
@@ -12600,11 +12592,11 @@
         <v>394</v>
       </c>
       <c r="B378" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C378" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C378" s="2" t="s">
-        <v>764</v>
-      </c>
       <c r="D378" s="2" t="s">
         <v>13</v>
       </c>
@@ -12615,7 +12607,7 @@
         <v>10</v>
       </c>
       <c r="G378" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.15">
@@ -12623,11 +12615,11 @@
         <v>395</v>
       </c>
       <c r="B379" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C379" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="C379" s="2" t="s">
-        <v>766</v>
-      </c>
       <c r="D379" s="2" t="s">
         <v>13</v>
       </c>
@@ -12638,7 +12630,7 @@
         <v>10</v>
       </c>
       <c r="G379" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
@@ -12646,11 +12638,11 @@
         <v>396</v>
       </c>
       <c r="B380" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="C380" s="2" t="s">
-        <v>768</v>
-      </c>
       <c r="D380" s="2" t="s">
         <v>13</v>
       </c>
@@ -12661,7 +12653,7 @@
         <v>10</v>
       </c>
       <c r="G380" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.15">
@@ -12669,11 +12661,11 @@
         <v>397</v>
       </c>
       <c r="B381" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C381" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C381" s="2" t="s">
-        <v>770</v>
-      </c>
       <c r="D381" s="2" t="s">
         <v>13</v>
       </c>
@@ -12684,7 +12676,7 @@
         <v>10</v>
       </c>
       <c r="G381" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.15">
@@ -12692,11 +12684,11 @@
         <v>398</v>
       </c>
       <c r="B382" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C382" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="C382" s="2" t="s">
-        <v>772</v>
-      </c>
       <c r="D382" s="2" t="s">
         <v>13</v>
       </c>
@@ -12707,7 +12699,7 @@
         <v>10</v>
       </c>
       <c r="G382" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
@@ -12715,11 +12707,11 @@
         <v>399</v>
       </c>
       <c r="B383" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C383" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C383" s="2" t="s">
-        <v>774</v>
-      </c>
       <c r="D383" s="2" t="s">
         <v>13</v>
       </c>
@@ -12730,7 +12722,7 @@
         <v>10</v>
       </c>
       <c r="G383" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.15">
@@ -12738,10 +12730,10 @@
         <v>400</v>
       </c>
       <c r="B384" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C384" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>776</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>8</v>
@@ -12753,7 +12745,7 @@
         <v>10</v>
       </c>
       <c r="G384" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.15">
@@ -12761,10 +12753,10 @@
         <v>401</v>
       </c>
       <c r="B385" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C385" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>8</v>
@@ -12776,7 +12768,7 @@
         <v>10</v>
       </c>
       <c r="G385" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.15">
@@ -12784,11 +12776,11 @@
         <v>402</v>
       </c>
       <c r="B386" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C386" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="C386" s="2" t="s">
-        <v>780</v>
-      </c>
       <c r="D386" s="2" t="s">
         <v>13</v>
       </c>
@@ -12799,7 +12791,7 @@
         <v>10</v>
       </c>
       <c r="G386" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.15">
@@ -12807,10 +12799,10 @@
         <v>403</v>
       </c>
       <c r="B387" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C387" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>782</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>18</v>
@@ -12822,7 +12814,7 @@
         <v>10</v>
       </c>
       <c r="G387" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.15">
@@ -12830,10 +12822,10 @@
         <v>404</v>
       </c>
       <c r="B388" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C388" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>8</v>
@@ -12845,7 +12837,7 @@
         <v>10</v>
       </c>
       <c r="G388" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
@@ -12853,10 +12845,10 @@
         <v>405</v>
       </c>
       <c r="B389" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>8</v>
@@ -12868,7 +12860,7 @@
         <v>10</v>
       </c>
       <c r="G389" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.15">
@@ -12876,11 +12868,11 @@
         <v>406</v>
       </c>
       <c r="B390" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C390" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="C390" s="2" t="s">
-        <v>788</v>
-      </c>
       <c r="D390" s="2" t="s">
         <v>13</v>
       </c>
@@ -12891,7 +12883,7 @@
         <v>10</v>
       </c>
       <c r="G390" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.15">
@@ -12899,10 +12891,10 @@
         <v>407</v>
       </c>
       <c r="B391" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C391" s="2" t="s">
         <v>789</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>790</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>18</v>
@@ -12914,7 +12906,7 @@
         <v>10</v>
       </c>
       <c r="G391" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.15">
@@ -12922,10 +12914,10 @@
         <v>408</v>
       </c>
       <c r="B392" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C392" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>792</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>8</v>
@@ -12942,10 +12934,10 @@
         <v>409</v>
       </c>
       <c r="B393" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C393" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>794</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>8</v>
@@ -12957,7 +12949,7 @@
         <v>10</v>
       </c>
       <c r="G393" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.15">
@@ -12965,10 +12957,10 @@
         <v>410</v>
       </c>
       <c r="B394" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C394" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>18</v>
@@ -12980,7 +12972,7 @@
         <v>10</v>
       </c>
       <c r="G394" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
@@ -12988,10 +12980,10 @@
         <v>411</v>
       </c>
       <c r="B395" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C395" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>18</v>
@@ -13008,10 +13000,10 @@
         <v>412</v>
       </c>
       <c r="B396" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C396" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>800</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>8</v>
@@ -13023,7 +13015,7 @@
         <v>10</v>
       </c>
       <c r="G396" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.15">
@@ -13031,10 +13023,10 @@
         <v>413</v>
       </c>
       <c r="B397" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C397" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>802</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>13</v>
@@ -13054,10 +13046,10 @@
         <v>414</v>
       </c>
       <c r="B398" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C398" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="C398" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>8</v>
@@ -13069,7 +13061,7 @@
         <v>10</v>
       </c>
       <c r="G398" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.15">
@@ -13077,10 +13069,10 @@
         <v>415</v>
       </c>
       <c r="B399" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C399" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>806</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>8</v>
@@ -13092,7 +13084,7 @@
         <v>10</v>
       </c>
       <c r="G399" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.15">
@@ -13100,11 +13092,11 @@
         <v>416</v>
       </c>
       <c r="B400" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C400" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="C400" s="2" t="s">
-        <v>808</v>
-      </c>
       <c r="D400" s="2" t="s">
         <v>13</v>
       </c>
@@ -13115,7 +13107,7 @@
         <v>10</v>
       </c>
       <c r="G400" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.15">
@@ -13123,11 +13115,11 @@
         <v>417</v>
       </c>
       <c r="B401" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C401" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C401" s="2" t="s">
-        <v>810</v>
-      </c>
       <c r="D401" s="2" t="s">
         <v>13</v>
       </c>
@@ -13138,7 +13130,7 @@
         <v>10</v>
       </c>
       <c r="G401" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.15">
@@ -13146,10 +13138,10 @@
         <v>418</v>
       </c>
       <c r="B402" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C402" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>13</v>
@@ -13166,11 +13158,11 @@
         <v>419</v>
       </c>
       <c r="B403" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="C403" s="2" t="s">
-        <v>814</v>
-      </c>
       <c r="D403" s="2" t="s">
         <v>13</v>
       </c>
@@ -13181,7 +13173,7 @@
         <v>10</v>
       </c>
       <c r="G403" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
@@ -13189,10 +13181,10 @@
         <v>420</v>
       </c>
       <c r="B404" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C404" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>18</v>
@@ -13209,11 +13201,11 @@
         <v>421</v>
       </c>
       <c r="B405" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C405" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="C405" s="2" t="s">
-        <v>818</v>
-      </c>
       <c r="D405" s="2" t="s">
         <v>13</v>
       </c>
@@ -13224,7 +13216,7 @@
         <v>10</v>
       </c>
       <c r="G405" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.15">
@@ -13232,10 +13224,10 @@
         <v>422</v>
       </c>
       <c r="B406" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C406" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>820</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>8</v>
@@ -13252,11 +13244,11 @@
         <v>423</v>
       </c>
       <c r="B407" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C407" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="C407" s="2" t="s">
-        <v>822</v>
-      </c>
       <c r="D407" s="2" t="s">
         <v>13</v>
       </c>
@@ -13267,7 +13259,7 @@
         <v>10</v>
       </c>
       <c r="G407" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.15">
@@ -13275,10 +13267,10 @@
         <v>424</v>
       </c>
       <c r="B408" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>824</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>13</v>
@@ -13298,10 +13290,10 @@
         <v>425</v>
       </c>
       <c r="B409" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C409" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>18</v>
@@ -13318,10 +13310,10 @@
         <v>432</v>
       </c>
       <c r="B410" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C410" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>18</v>
@@ -13333,7 +13325,7 @@
         <v>10</v>
       </c>
       <c r="G410" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.15">
@@ -13341,10 +13333,10 @@
         <v>434</v>
       </c>
       <c r="B411" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C411" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>8</v>
@@ -13356,7 +13348,7 @@
         <v>10</v>
       </c>
       <c r="G411" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.15">
@@ -13364,11 +13356,11 @@
         <v>435</v>
       </c>
       <c r="B412" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C412" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C412" s="2" t="s">
-        <v>832</v>
-      </c>
       <c r="D412" s="2" t="s">
         <v>13</v>
       </c>
@@ -13379,7 +13371,7 @@
         <v>10</v>
       </c>
       <c r="G412" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
@@ -13387,11 +13379,11 @@
         <v>436</v>
       </c>
       <c r="B413" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C413" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="C413" s="2" t="s">
-        <v>834</v>
-      </c>
       <c r="D413" s="2" t="s">
         <v>13</v>
       </c>
@@ -13402,7 +13394,7 @@
         <v>10</v>
       </c>
       <c r="G413" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.15">
@@ -13410,10 +13402,10 @@
         <v>437</v>
       </c>
       <c r="B414" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C414" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>8</v>
@@ -13425,7 +13417,7 @@
         <v>10</v>
       </c>
       <c r="G414" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.15">
@@ -13433,10 +13425,10 @@
         <v>438</v>
       </c>
       <c r="B415" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C415" s="2" t="s">
         <v>837</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>838</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>8</v>
@@ -13448,7 +13440,7 @@
         <v>10</v>
       </c>
       <c r="G415" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.15">
@@ -13456,10 +13448,10 @@
         <v>439</v>
       </c>
       <c r="B416" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C416" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>840</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>13</v>
@@ -13476,10 +13468,10 @@
         <v>440</v>
       </c>
       <c r="B417" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C417" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>18</v>
@@ -13491,7 +13483,7 @@
         <v>10</v>
       </c>
       <c r="G417" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.15">
@@ -13499,10 +13491,10 @@
         <v>441</v>
       </c>
       <c r="B418" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C418" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>844</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>8</v>
@@ -13514,7 +13506,7 @@
         <v>10</v>
       </c>
       <c r="G418" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.15">
@@ -13522,11 +13514,11 @@
         <v>442</v>
       </c>
       <c r="B419" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C419" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="C419" s="2" t="s">
-        <v>846</v>
-      </c>
       <c r="D419" s="2" t="s">
         <v>13</v>
       </c>
@@ -13537,7 +13529,7 @@
         <v>10</v>
       </c>
       <c r="G419" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.15">
@@ -13545,10 +13537,10 @@
         <v>444</v>
       </c>
       <c r="B420" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C420" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>13</v>
@@ -13565,11 +13557,11 @@
         <v>445</v>
       </c>
       <c r="B421" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C421" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C421" s="2" t="s">
-        <v>850</v>
-      </c>
       <c r="D421" s="2" t="s">
         <v>13</v>
       </c>
@@ -13580,7 +13572,7 @@
         <v>10</v>
       </c>
       <c r="G421" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.15">
@@ -13588,10 +13580,10 @@
         <v>446</v>
       </c>
       <c r="B422" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C422" s="2" t="s">
         <v>851</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>852</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>18</v>
@@ -13603,7 +13595,7 @@
         <v>10</v>
       </c>
       <c r="G422" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.15">
@@ -13611,10 +13603,10 @@
         <v>447</v>
       </c>
       <c r="B423" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C423" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>854</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>8</v>
@@ -13626,7 +13618,7 @@
         <v>10</v>
       </c>
       <c r="G423" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.15">
@@ -13634,10 +13626,10 @@
         <v>448</v>
       </c>
       <c r="B424" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C424" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>856</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>8</v>
@@ -13649,7 +13641,7 @@
         <v>10</v>
       </c>
       <c r="G424" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.15">
@@ -13657,11 +13649,11 @@
         <v>449</v>
       </c>
       <c r="B425" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C425" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="C425" s="2" t="s">
-        <v>858</v>
-      </c>
       <c r="D425" s="2" t="s">
         <v>13</v>
       </c>
@@ -13672,7 +13664,7 @@
         <v>10</v>
       </c>
       <c r="G425" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.15">
@@ -13680,11 +13672,11 @@
         <v>450</v>
       </c>
       <c r="B426" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C426" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="C426" s="2" t="s">
-        <v>860</v>
-      </c>
       <c r="D426" s="2" t="s">
         <v>13</v>
       </c>
@@ -13695,7 +13687,7 @@
         <v>10</v>
       </c>
       <c r="G426" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.15">
@@ -13703,11 +13695,11 @@
         <v>451</v>
       </c>
       <c r="B427" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C427" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="C427" s="2" t="s">
-        <v>862</v>
-      </c>
       <c r="D427" s="2" t="s">
         <v>13</v>
       </c>
@@ -13718,7 +13710,7 @@
         <v>10</v>
       </c>
       <c r="G427" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.15">
@@ -13726,11 +13718,11 @@
         <v>452</v>
       </c>
       <c r="B428" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C428" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C428" s="2" t="s">
-        <v>864</v>
-      </c>
       <c r="D428" s="2" t="s">
         <v>13</v>
       </c>
@@ -13741,7 +13733,7 @@
         <v>10</v>
       </c>
       <c r="G428" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.15">
@@ -13749,10 +13741,10 @@
         <v>453</v>
       </c>
       <c r="B429" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C429" s="2" t="s">
         <v>865</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>866</v>
       </c>
       <c r="D429" s="2" t="s">
         <v>8</v>
@@ -13764,7 +13756,7 @@
         <v>10</v>
       </c>
       <c r="G429" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.15">
@@ -13772,11 +13764,11 @@
         <v>454</v>
       </c>
       <c r="B430" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C430" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="C430" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="D430" s="2" t="s">
         <v>13</v>
       </c>
@@ -13787,7 +13779,7 @@
         <v>10</v>
       </c>
       <c r="G430" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.15">
@@ -13795,10 +13787,10 @@
         <v>455</v>
       </c>
       <c r="B431" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C431" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>870</v>
       </c>
       <c r="D431" s="2" t="s">
         <v>8</v>
@@ -13810,7 +13802,7 @@
         <v>10</v>
       </c>
       <c r="G431" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.15">
@@ -13818,11 +13810,11 @@
         <v>456</v>
       </c>
       <c r="B432" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="C432" s="2" t="s">
-        <v>872</v>
-      </c>
       <c r="D432" s="2" t="s">
         <v>13</v>
       </c>
@@ -13833,7 +13825,7 @@
         <v>10</v>
       </c>
       <c r="G432" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.15">
@@ -13841,10 +13833,10 @@
         <v>459</v>
       </c>
       <c r="B433" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C433" s="2" t="s">
         <v>873</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>874</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>8</v>
@@ -13856,7 +13848,7 @@
         <v>10</v>
       </c>
       <c r="G433" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
@@ -13864,10 +13856,10 @@
         <v>460</v>
       </c>
       <c r="B434" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C434" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>876</v>
       </c>
       <c r="D434" s="2" t="s">
         <v>18</v>
@@ -13879,7 +13871,7 @@
         <v>10</v>
       </c>
       <c r="G434" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.15">
@@ -13887,10 +13879,10 @@
         <v>461</v>
       </c>
       <c r="B435" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C435" s="2" t="s">
         <v>877</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>878</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>8</v>
@@ -13902,7 +13894,7 @@
         <v>10</v>
       </c>
       <c r="G435" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.15">
@@ -13910,11 +13902,11 @@
         <v>462</v>
       </c>
       <c r="B436" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>880</v>
-      </c>
       <c r="D436" s="2" t="s">
         <v>13</v>
       </c>
@@ -13925,7 +13917,7 @@
         <v>10</v>
       </c>
       <c r="G436" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.15">
@@ -13933,10 +13925,10 @@
         <v>463</v>
       </c>
       <c r="B437" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C437" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>882</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>8</v>
@@ -13948,7 +13940,7 @@
         <v>10</v>
       </c>
       <c r="G437" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.15">
@@ -13956,11 +13948,11 @@
         <v>464</v>
       </c>
       <c r="B438" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C438" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="C438" s="2" t="s">
-        <v>884</v>
-      </c>
       <c r="D438" s="2" t="s">
         <v>13</v>
       </c>
@@ -13971,7 +13963,7 @@
         <v>10</v>
       </c>
       <c r="G438" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.15">
@@ -13979,10 +13971,10 @@
         <v>465</v>
       </c>
       <c r="B439" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C439" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>886</v>
       </c>
       <c r="D439" s="2" t="s">
         <v>18</v>
@@ -13999,10 +13991,10 @@
         <v>466</v>
       </c>
       <c r="B440" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>887</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>888</v>
       </c>
       <c r="D440" s="2" t="s">
         <v>18</v>
@@ -14019,11 +14011,11 @@
         <v>467</v>
       </c>
       <c r="B441" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C441" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="C441" s="2" t="s">
-        <v>890</v>
-      </c>
       <c r="D441" s="2" t="s">
         <v>13</v>
       </c>
@@ -14034,7 +14026,7 @@
         <v>10</v>
       </c>
       <c r="G441" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.15">
@@ -14042,11 +14034,11 @@
         <v>468</v>
       </c>
       <c r="B442" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C442" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="C442" s="2" t="s">
-        <v>892</v>
-      </c>
       <c r="D442" s="2" t="s">
         <v>13</v>
       </c>
@@ -14057,7 +14049,7 @@
         <v>10</v>
       </c>
       <c r="G442" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.15">
@@ -14065,10 +14057,10 @@
         <v>469</v>
       </c>
       <c r="B443" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C443" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>894</v>
       </c>
       <c r="D443" s="2" t="s">
         <v>13</v>
@@ -14085,10 +14077,10 @@
         <v>471</v>
       </c>
       <c r="B444" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C444" s="2" t="s">
         <v>895</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="D444" s="2" t="s">
         <v>18</v>
@@ -14105,10 +14097,10 @@
         <v>472</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>897</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>898</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>18</v>
@@ -14120,7 +14112,7 @@
         <v>10</v>
       </c>
       <c r="G445" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.15">
@@ -14128,11 +14120,11 @@
         <v>473</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>900</v>
-      </c>
       <c r="D446" s="2" t="s">
         <v>13</v>
       </c>
@@ -14143,7 +14135,7 @@
         <v>10</v>
       </c>
       <c r="G446" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.15">
@@ -14151,10 +14143,10 @@
         <v>474</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>901</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="D447" s="2" t="s">
         <v>13</v>
@@ -14174,10 +14166,10 @@
         <v>475</v>
       </c>
       <c r="B448" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C448" s="2" t="s">
         <v>903</v>
-      </c>
-      <c r="C448" s="2" t="s">
-        <v>904</v>
       </c>
       <c r="D448" s="2" t="s">
         <v>8</v>
@@ -14197,10 +14189,10 @@
         <v>476</v>
       </c>
       <c r="B449" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C449" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="C449" s="2" t="s">
-        <v>906</v>
       </c>
       <c r="D449" s="2" t="s">
         <v>8</v>
@@ -14212,7 +14204,7 @@
         <v>10</v>
       </c>
       <c r="G449" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.15">
@@ -14220,11 +14212,11 @@
         <v>477</v>
       </c>
       <c r="B450" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C450" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="C450" s="2" t="s">
-        <v>908</v>
-      </c>
       <c r="D450" s="2" t="s">
         <v>13</v>
       </c>
@@ -14235,7 +14227,7 @@
         <v>10</v>
       </c>
       <c r="G450" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.15">
@@ -14243,10 +14235,10 @@
         <v>479</v>
       </c>
       <c r="B451" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C451" s="2" t="s">
         <v>909</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>910</v>
       </c>
       <c r="D451" s="2" t="s">
         <v>8</v>
@@ -14263,10 +14255,10 @@
         <v>480</v>
       </c>
       <c r="B452" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C452" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>912</v>
       </c>
       <c r="D452" s="2" t="s">
         <v>18</v>
@@ -14278,7 +14270,7 @@
         <v>10</v>
       </c>
       <c r="G452" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.15">
@@ -14286,10 +14278,10 @@
         <v>481</v>
       </c>
       <c r="B453" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C453" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>914</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>13</v>
@@ -14306,11 +14298,11 @@
         <v>482</v>
       </c>
       <c r="B454" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C454" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="C454" s="2" t="s">
-        <v>916</v>
-      </c>
       <c r="D454" s="2" t="s">
         <v>13</v>
       </c>
@@ -14321,7 +14313,7 @@
         <v>10</v>
       </c>
       <c r="G454" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.15">
@@ -14329,10 +14321,10 @@
         <v>483</v>
       </c>
       <c r="B455" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C455" s="2" t="s">
         <v>917</v>
-      </c>
-      <c r="C455" s="2" t="s">
-        <v>918</v>
       </c>
       <c r="D455" s="2" t="s">
         <v>18</v>
@@ -14349,10 +14341,10 @@
         <v>484</v>
       </c>
       <c r="B456" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C456" s="2" t="s">
         <v>919</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>920</v>
       </c>
       <c r="D456" s="2" t="s">
         <v>13</v>
@@ -14369,10 +14361,10 @@
         <v>485</v>
       </c>
       <c r="B457" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C457" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="C457" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="D457" s="2" t="s">
         <v>8</v>
@@ -14384,7 +14376,7 @@
         <v>10</v>
       </c>
       <c r="G457" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.15">
@@ -14392,11 +14384,11 @@
         <v>486</v>
       </c>
       <c r="B458" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C458" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="C458" s="2" t="s">
-        <v>924</v>
-      </c>
       <c r="D458" s="2" t="s">
         <v>13</v>
       </c>
@@ -14407,7 +14399,7 @@
         <v>10</v>
       </c>
       <c r="G458" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.15">
@@ -14415,10 +14407,10 @@
         <v>487</v>
       </c>
       <c r="B459" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C459" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>926</v>
       </c>
       <c r="D459" s="2" t="s">
         <v>13</v>
@@ -14435,10 +14427,10 @@
         <v>488</v>
       </c>
       <c r="B460" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C460" s="2" t="s">
         <v>927</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>928</v>
       </c>
       <c r="D460" s="2" t="s">
         <v>18</v>
@@ -14455,10 +14447,10 @@
         <v>490</v>
       </c>
       <c r="B461" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C461" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>930</v>
       </c>
       <c r="D461" s="2" t="s">
         <v>13</v>
@@ -14475,11 +14467,11 @@
         <v>491</v>
       </c>
       <c r="B462" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C462" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="C462" s="2" t="s">
-        <v>932</v>
-      </c>
       <c r="D462" s="2" t="s">
         <v>13</v>
       </c>
@@ -14490,7 +14482,7 @@
         <v>10</v>
       </c>
       <c r="G462" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.15">
@@ -14498,10 +14490,10 @@
         <v>492</v>
       </c>
       <c r="B463" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C463" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>934</v>
       </c>
       <c r="D463" s="2" t="s">
         <v>8</v>
@@ -14513,7 +14505,7 @@
         <v>10</v>
       </c>
       <c r="G463" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.15">
@@ -14521,10 +14513,10 @@
         <v>493</v>
       </c>
       <c r="B464" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C464" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>936</v>
       </c>
       <c r="D464" s="2" t="s">
         <v>18</v>
@@ -14536,7 +14528,7 @@
         <v>10</v>
       </c>
       <c r="G464" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.15">
@@ -14544,11 +14536,11 @@
         <v>494</v>
       </c>
       <c r="B465" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C465" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="C465" s="2" t="s">
-        <v>938</v>
-      </c>
       <c r="D465" s="2" t="s">
         <v>13</v>
       </c>
@@ -14559,7 +14551,7 @@
         <v>10</v>
       </c>
       <c r="G465" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.15">
@@ -14567,11 +14559,11 @@
         <v>495</v>
       </c>
       <c r="B466" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C466" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="C466" s="2" t="s">
-        <v>940</v>
-      </c>
       <c r="D466" s="2" t="s">
         <v>13</v>
       </c>
@@ -14582,7 +14574,7 @@
         <v>10</v>
       </c>
       <c r="G466" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.15">
@@ -14590,10 +14582,10 @@
         <v>496</v>
       </c>
       <c r="B467" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C467" s="2" t="s">
         <v>941</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>942</v>
       </c>
       <c r="D467" s="2" t="s">
         <v>8</v>
@@ -14605,7 +14597,7 @@
         <v>10</v>
       </c>
       <c r="G467" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.15">
@@ -14613,11 +14605,11 @@
         <v>498</v>
       </c>
       <c r="B468" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C468" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="C468" s="2" t="s">
-        <v>944</v>
-      </c>
       <c r="D468" s="2" t="s">
         <v>13</v>
       </c>
@@ -14628,7 +14620,7 @@
         <v>10</v>
       </c>
       <c r="G468" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.15">
@@ -14636,10 +14628,10 @@
         <v>499</v>
       </c>
       <c r="B469" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C469" s="2" t="s">
         <v>945</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>946</v>
       </c>
       <c r="D469" s="2" t="s">
         <v>18</v>
@@ -14656,10 +14648,10 @@
         <v>500</v>
       </c>
       <c r="B470" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C470" s="2" t="s">
         <v>947</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>948</v>
       </c>
       <c r="D470" s="2" t="s">
         <v>8</v>
@@ -14671,7 +14663,7 @@
         <v>10</v>
       </c>
       <c r="G470" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.15">
@@ -14679,10 +14671,10 @@
         <v>501</v>
       </c>
       <c r="B471" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C471" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>950</v>
       </c>
       <c r="D471" s="2" t="s">
         <v>8</v>
@@ -14694,7 +14686,7 @@
         <v>10</v>
       </c>
       <c r="G471" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.15">
@@ -14702,10 +14694,10 @@
         <v>502</v>
       </c>
       <c r="B472" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C472" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>952</v>
       </c>
       <c r="D472" s="2" t="s">
         <v>18</v>
@@ -14717,7 +14709,7 @@
         <v>10</v>
       </c>
       <c r="G472" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.15">
@@ -14725,10 +14717,10 @@
         <v>503</v>
       </c>
       <c r="B473" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C473" s="2" t="s">
         <v>953</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>954</v>
       </c>
       <c r="D473" s="2" t="s">
         <v>13</v>
@@ -14748,10 +14740,10 @@
         <v>504</v>
       </c>
       <c r="B474" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C474" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>956</v>
       </c>
       <c r="D474" s="2" t="s">
         <v>8</v>
@@ -14763,7 +14755,7 @@
         <v>10</v>
       </c>
       <c r="G474" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.15">
@@ -14771,10 +14763,10 @@
         <v>505</v>
       </c>
       <c r="B475" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C475" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>958</v>
       </c>
       <c r="D475" s="2" t="s">
         <v>13</v>
@@ -14791,10 +14783,10 @@
         <v>506</v>
       </c>
       <c r="B476" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C476" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="D476" s="2" t="s">
         <v>8</v>
@@ -14806,7 +14798,7 @@
         <v>10</v>
       </c>
       <c r="G476" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.15">
@@ -14814,10 +14806,10 @@
         <v>507</v>
       </c>
       <c r="B477" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C477" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>962</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>8</v>
@@ -14829,7 +14821,7 @@
         <v>10</v>
       </c>
       <c r="G477" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.15">
@@ -14837,11 +14829,11 @@
         <v>508</v>
       </c>
       <c r="B478" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C478" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="C478" s="2" t="s">
-        <v>964</v>
-      </c>
       <c r="D478" s="2" t="s">
         <v>13</v>
       </c>
@@ -14852,7 +14844,7 @@
         <v>10</v>
       </c>
       <c r="G478" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.15">
@@ -14860,11 +14852,11 @@
         <v>513</v>
       </c>
       <c r="B479" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C479" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="C479" s="2" t="s">
-        <v>966</v>
-      </c>
       <c r="D479" s="2" t="s">
         <v>13</v>
       </c>
@@ -14875,7 +14867,7 @@
         <v>10</v>
       </c>
       <c r="G479" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.15">
@@ -14883,10 +14875,10 @@
         <v>514</v>
       </c>
       <c r="B480" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C480" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="C480" s="2" t="s">
-        <v>968</v>
       </c>
       <c r="D480" s="2" t="s">
         <v>18</v>
@@ -14898,7 +14890,7 @@
         <v>10</v>
       </c>
       <c r="G480" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.15">
@@ -14906,11 +14898,11 @@
         <v>515</v>
       </c>
       <c r="B481" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C481" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="C481" s="2" t="s">
-        <v>970</v>
-      </c>
       <c r="D481" s="2" t="s">
         <v>13</v>
       </c>
@@ -14921,7 +14913,7 @@
         <v>10</v>
       </c>
       <c r="G481" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.15">
@@ -14929,11 +14921,11 @@
         <v>516</v>
       </c>
       <c r="B482" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C482" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="C482" s="2" t="s">
-        <v>972</v>
-      </c>
       <c r="D482" s="2" t="s">
         <v>13</v>
       </c>
@@ -14944,7 +14936,7 @@
         <v>10</v>
       </c>
       <c r="G482" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.15">
@@ -14952,10 +14944,10 @@
         <v>517</v>
       </c>
       <c r="B483" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C483" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="C483" s="2" t="s">
-        <v>974</v>
       </c>
       <c r="D483" s="2" t="s">
         <v>18</v>
@@ -14967,7 +14959,7 @@
         <v>10</v>
       </c>
       <c r="G483" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.15">
@@ -14975,10 +14967,10 @@
         <v>520</v>
       </c>
       <c r="B484" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C484" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="C484" s="2" t="s">
-        <v>976</v>
       </c>
       <c r="D484" s="2" t="s">
         <v>8</v>
@@ -14990,7 +14982,7 @@
         <v>10</v>
       </c>
       <c r="G484" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.15">
@@ -14998,10 +14990,10 @@
         <v>521</v>
       </c>
       <c r="B485" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C485" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>978</v>
       </c>
       <c r="D485" s="2" t="s">
         <v>8</v>
@@ -15013,7 +15005,7 @@
         <v>10</v>
       </c>
       <c r="G485" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.15">
@@ -15021,11 +15013,11 @@
         <v>522</v>
       </c>
       <c r="B486" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C486" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="C486" s="2" t="s">
-        <v>980</v>
-      </c>
       <c r="D486" s="2" t="s">
         <v>13</v>
       </c>
@@ -15036,7 +15028,7 @@
         <v>10</v>
       </c>
       <c r="G486" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.15">
@@ -15044,11 +15036,11 @@
         <v>523</v>
       </c>
       <c r="B487" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C487" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="C487" s="2" t="s">
-        <v>982</v>
-      </c>
       <c r="D487" s="2" t="s">
         <v>13</v>
       </c>
@@ -15059,7 +15051,7 @@
         <v>10</v>
       </c>
       <c r="G487" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.15">
@@ -15067,11 +15059,11 @@
         <v>524</v>
       </c>
       <c r="B488" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C488" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="C488" s="2" t="s">
-        <v>984</v>
-      </c>
       <c r="D488" s="2" t="s">
         <v>13</v>
       </c>
@@ -15082,7 +15074,7 @@
         <v>10</v>
       </c>
       <c r="G488" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.15">
@@ -15090,11 +15082,11 @@
         <v>525</v>
       </c>
       <c r="B489" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C489" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="C489" s="2" t="s">
-        <v>986</v>
-      </c>
       <c r="D489" s="2" t="s">
         <v>13</v>
       </c>
@@ -15105,7 +15097,7 @@
         <v>10</v>
       </c>
       <c r="G489" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.15">
@@ -15113,11 +15105,11 @@
         <v>526</v>
       </c>
       <c r="B490" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C490" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="C490" s="2" t="s">
-        <v>988</v>
-      </c>
       <c r="D490" s="2" t="s">
         <v>13</v>
       </c>
@@ -15128,7 +15120,7 @@
         <v>10</v>
       </c>
       <c r="G490" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.15">
@@ -15136,10 +15128,10 @@
         <v>527</v>
       </c>
       <c r="B491" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C491" s="2" t="s">
         <v>989</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>990</v>
       </c>
       <c r="D491" s="2" t="s">
         <v>18</v>
@@ -15156,10 +15148,10 @@
         <v>529</v>
       </c>
       <c r="B492" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C492" s="2" t="s">
         <v>991</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>992</v>
       </c>
       <c r="D492" s="2" t="s">
         <v>13</v>
@@ -15179,10 +15171,10 @@
         <v>530</v>
       </c>
       <c r="B493" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C493" s="2" t="s">
         <v>993</v>
-      </c>
-      <c r="C493" s="2" t="s">
-        <v>994</v>
       </c>
       <c r="D493" s="2" t="s">
         <v>8</v>
@@ -15194,7 +15186,7 @@
         <v>10</v>
       </c>
       <c r="G493" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.15">
@@ -15202,10 +15194,10 @@
         <v>531</v>
       </c>
       <c r="B494" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C494" s="2" t="s">
         <v>995</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>996</v>
       </c>
       <c r="D494" s="2" t="s">
         <v>13</v>
@@ -15222,10 +15214,10 @@
         <v>532</v>
       </c>
       <c r="B495" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C495" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="C495" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="D495" s="2" t="s">
         <v>8</v>
@@ -15237,7 +15229,7 @@
         <v>10</v>
       </c>
       <c r="G495" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.15">
@@ -15245,10 +15237,10 @@
         <v>533</v>
       </c>
       <c r="B496" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C496" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="C496" s="2" t="s">
-        <v>1000</v>
       </c>
       <c r="D496" s="2" t="s">
         <v>13</v>
@@ -15265,11 +15257,11 @@
         <v>535</v>
       </c>
       <c r="B497" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C497" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="C497" s="2" t="s">
-        <v>1002</v>
-      </c>
       <c r="D497" s="2" t="s">
         <v>13</v>
       </c>
@@ -15280,7 +15272,7 @@
         <v>10</v>
       </c>
       <c r="G497" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.15">
@@ -15288,10 +15280,10 @@
         <v>536</v>
       </c>
       <c r="B498" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C498" s="2" t="s">
         <v>1003</v>
-      </c>
-      <c r="C498" s="2" t="s">
-        <v>1004</v>
       </c>
       <c r="D498" s="2" t="s">
         <v>13</v>
@@ -15308,11 +15300,11 @@
         <v>537</v>
       </c>
       <c r="B499" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C499" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="C499" s="2" t="s">
-        <v>1006</v>
-      </c>
       <c r="D499" s="2" t="s">
         <v>13</v>
       </c>
@@ -15323,7 +15315,7 @@
         <v>10</v>
       </c>
       <c r="G499" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.15">
@@ -15331,10 +15323,10 @@
         <v>538</v>
       </c>
       <c r="B500" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C500" s="2" t="s">
         <v>1007</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>1008</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>8</v>
@@ -15346,7 +15338,7 @@
         <v>10</v>
       </c>
       <c r="G500" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.15">
@@ -15354,11 +15346,11 @@
         <v>539</v>
       </c>
       <c r="B501" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C501" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="C501" s="2" t="s">
-        <v>1010</v>
-      </c>
       <c r="D501" s="2" t="s">
         <v>13</v>
       </c>
@@ -15369,7 +15361,7 @@
         <v>10</v>
       </c>
       <c r="G501" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.15">
@@ -15377,10 +15369,10 @@
         <v>540</v>
       </c>
       <c r="B502" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C502" s="2" t="s">
         <v>1011</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>1012</v>
       </c>
       <c r="D502" s="2" t="s">
         <v>13</v>
@@ -15397,10 +15389,10 @@
         <v>541</v>
       </c>
       <c r="B503" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C503" s="2" t="s">
         <v>1013</v>
-      </c>
-      <c r="C503" s="2" t="s">
-        <v>1014</v>
       </c>
       <c r="D503" s="2" t="s">
         <v>8</v>
@@ -15412,7 +15404,7 @@
         <v>10</v>
       </c>
       <c r="G503" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.15">
@@ -15420,10 +15412,10 @@
         <v>542</v>
       </c>
       <c r="B504" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C504" s="2" t="s">
         <v>1015</v>
-      </c>
-      <c r="C504" s="2" t="s">
-        <v>1016</v>
       </c>
       <c r="D504" s="2" t="s">
         <v>13</v>
@@ -15443,10 +15435,10 @@
         <v>543</v>
       </c>
       <c r="B505" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C505" s="2" t="s">
         <v>1017</v>
-      </c>
-      <c r="C505" s="2" t="s">
-        <v>1018</v>
       </c>
       <c r="D505" s="2" t="s">
         <v>8</v>
@@ -15458,7 +15450,7 @@
         <v>10</v>
       </c>
       <c r="G505" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.15">
@@ -15466,10 +15458,10 @@
         <v>544</v>
       </c>
       <c r="B506" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C506" s="2" t="s">
         <v>1019</v>
-      </c>
-      <c r="C506" s="2" t="s">
-        <v>1020</v>
       </c>
       <c r="D506" s="2" t="s">
         <v>13</v>
@@ -15486,10 +15478,10 @@
         <v>545</v>
       </c>
       <c r="B507" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C507" s="2" t="s">
         <v>1021</v>
-      </c>
-      <c r="C507" s="2" t="s">
-        <v>1022</v>
       </c>
       <c r="D507" s="2" t="s">
         <v>13</v>
@@ -15506,10 +15498,10 @@
         <v>546</v>
       </c>
       <c r="B508" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C508" s="2" t="s">
         <v>1023</v>
-      </c>
-      <c r="C508" s="2" t="s">
-        <v>1024</v>
       </c>
       <c r="D508" s="2" t="s">
         <v>18</v>
@@ -15526,11 +15518,11 @@
         <v>547</v>
       </c>
       <c r="B509" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C509" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="C509" s="2" t="s">
-        <v>1026</v>
-      </c>
       <c r="D509" s="2" t="s">
         <v>13</v>
       </c>
@@ -15541,7 +15533,7 @@
         <v>10</v>
       </c>
       <c r="G509" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.15">
@@ -15549,10 +15541,10 @@
         <v>548</v>
       </c>
       <c r="B510" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C510" s="2" t="s">
         <v>1027</v>
-      </c>
-      <c r="C510" s="2" t="s">
-        <v>1028</v>
       </c>
       <c r="D510" s="2" t="s">
         <v>13</v>
@@ -15569,10 +15561,10 @@
         <v>549</v>
       </c>
       <c r="B511" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C511" s="2" t="s">
         <v>1029</v>
-      </c>
-      <c r="C511" s="2" t="s">
-        <v>1030</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>13</v>
@@ -15589,10 +15581,10 @@
         <v>551</v>
       </c>
       <c r="B512" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C512" s="2" t="s">
         <v>1031</v>
-      </c>
-      <c r="C512" s="2" t="s">
-        <v>1032</v>
       </c>
       <c r="D512" s="2" t="s">
         <v>8</v>
@@ -15604,7 +15596,7 @@
         <v>10</v>
       </c>
       <c r="G512" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.15">
@@ -15612,10 +15604,10 @@
         <v>552</v>
       </c>
       <c r="B513" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C513" s="2" t="s">
         <v>1033</v>
-      </c>
-      <c r="C513" s="2" t="s">
-        <v>1034</v>
       </c>
       <c r="D513" s="2" t="s">
         <v>18</v>
@@ -15627,7 +15619,7 @@
         <v>10</v>
       </c>
       <c r="G513" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.15">
@@ -15635,11 +15627,11 @@
         <v>553</v>
       </c>
       <c r="B514" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C514" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="C514" s="2" t="s">
-        <v>1036</v>
-      </c>
       <c r="D514" s="2" t="s">
         <v>13</v>
       </c>
@@ -15650,7 +15642,7 @@
         <v>10</v>
       </c>
       <c r="G514" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.15">
@@ -15658,11 +15650,11 @@
         <v>554</v>
       </c>
       <c r="B515" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C515" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="C515" s="2" t="s">
-        <v>1038</v>
-      </c>
       <c r="D515" s="2" t="s">
         <v>13</v>
       </c>
@@ -15673,7 +15665,7 @@
         <v>10</v>
       </c>
       <c r="G515" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.15">
@@ -15681,10 +15673,10 @@
         <v>555</v>
       </c>
       <c r="B516" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C516" s="2" t="s">
         <v>1039</v>
-      </c>
-      <c r="C516" s="2" t="s">
-        <v>1040</v>
       </c>
       <c r="D516" s="2" t="s">
         <v>13</v>
@@ -15701,11 +15693,11 @@
         <v>556</v>
       </c>
       <c r="B517" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C517" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="C517" s="2" t="s">
-        <v>1042</v>
-      </c>
       <c r="D517" s="2" t="s">
         <v>13</v>
       </c>
@@ -15716,7 +15708,7 @@
         <v>10</v>
       </c>
       <c r="G517" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.15">
@@ -15724,10 +15716,10 @@
         <v>557</v>
       </c>
       <c r="B518" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C518" s="2" t="s">
         <v>1043</v>
-      </c>
-      <c r="C518" s="2" t="s">
-        <v>1044</v>
       </c>
       <c r="D518" s="2" t="s">
         <v>8</v>
@@ -15739,7 +15731,7 @@
         <v>10</v>
       </c>
       <c r="G518" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.15">
@@ -15747,10 +15739,10 @@
         <v>560</v>
       </c>
       <c r="B519" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C519" s="2" t="s">
         <v>1045</v>
-      </c>
-      <c r="C519" s="2" t="s">
-        <v>1046</v>
       </c>
       <c r="D519" s="2" t="s">
         <v>13</v>
@@ -15767,10 +15759,10 @@
         <v>561</v>
       </c>
       <c r="B520" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C520" s="2" t="s">
         <v>1047</v>
-      </c>
-      <c r="C520" s="2" t="s">
-        <v>1048</v>
       </c>
       <c r="D520" s="2" t="s">
         <v>8</v>
@@ -15782,7 +15774,7 @@
         <v>10</v>
       </c>
       <c r="G520" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.15">
@@ -15790,10 +15782,10 @@
         <v>562</v>
       </c>
       <c r="B521" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C521" s="2" t="s">
         <v>1049</v>
-      </c>
-      <c r="C521" s="2" t="s">
-        <v>1050</v>
       </c>
       <c r="D521" s="2" t="s">
         <v>13</v>
@@ -15810,10 +15802,10 @@
         <v>563</v>
       </c>
       <c r="B522" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C522" s="2" t="s">
         <v>1051</v>
-      </c>
-      <c r="C522" s="2" t="s">
-        <v>1052</v>
       </c>
       <c r="D522" s="2" t="s">
         <v>8</v>
@@ -15830,10 +15822,10 @@
         <v>564</v>
       </c>
       <c r="B523" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C523" s="2" t="s">
         <v>1053</v>
-      </c>
-      <c r="C523" s="2" t="s">
-        <v>1054</v>
       </c>
       <c r="D523" s="2" t="s">
         <v>18</v>
@@ -15850,10 +15842,10 @@
         <v>565</v>
       </c>
       <c r="B524" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C524" s="2" t="s">
         <v>1055</v>
-      </c>
-      <c r="C524" s="2" t="s">
-        <v>1056</v>
       </c>
       <c r="D524" s="2" t="s">
         <v>13</v>
@@ -15870,10 +15862,10 @@
         <v>566</v>
       </c>
       <c r="B525" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C525" s="2" t="s">
         <v>1057</v>
-      </c>
-      <c r="C525" s="2" t="s">
-        <v>1058</v>
       </c>
       <c r="D525" s="2" t="s">
         <v>8</v>
@@ -15885,7 +15877,7 @@
         <v>10</v>
       </c>
       <c r="G525" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.15">
@@ -15893,10 +15885,10 @@
         <v>567</v>
       </c>
       <c r="B526" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C526" s="2" t="s">
         <v>1059</v>
-      </c>
-      <c r="C526" s="2" t="s">
-        <v>1060</v>
       </c>
       <c r="D526" s="2" t="s">
         <v>13</v>
@@ -15913,10 +15905,10 @@
         <v>568</v>
       </c>
       <c r="B527" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C527" s="2" t="s">
         <v>1061</v>
-      </c>
-      <c r="C527" s="2" t="s">
-        <v>1062</v>
       </c>
       <c r="D527" s="2" t="s">
         <v>18</v>
@@ -15933,10 +15925,10 @@
         <v>572</v>
       </c>
       <c r="B528" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C528" s="2" t="s">
         <v>1063</v>
-      </c>
-      <c r="C528" s="2" t="s">
-        <v>1064</v>
       </c>
       <c r="D528" s="2" t="s">
         <v>8</v>
@@ -15948,7 +15940,7 @@
         <v>10</v>
       </c>
       <c r="G528" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.15">
@@ -15956,10 +15948,10 @@
         <v>573</v>
       </c>
       <c r="B529" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C529" s="2" t="s">
         <v>1065</v>
-      </c>
-      <c r="C529" s="2" t="s">
-        <v>1066</v>
       </c>
       <c r="D529" s="2" t="s">
         <v>13</v>
@@ -15976,10 +15968,10 @@
         <v>575</v>
       </c>
       <c r="B530" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C530" s="2" t="s">
         <v>1067</v>
-      </c>
-      <c r="C530" s="2" t="s">
-        <v>1068</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>8</v>
@@ -15991,7 +15983,7 @@
         <v>10</v>
       </c>
       <c r="G530" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.15">
@@ -15999,10 +15991,10 @@
         <v>576</v>
       </c>
       <c r="B531" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C531" s="2" t="s">
         <v>1069</v>
-      </c>
-      <c r="C531" s="2" t="s">
-        <v>1070</v>
       </c>
       <c r="D531" s="2" t="s">
         <v>13</v>
@@ -16019,10 +16011,10 @@
         <v>581</v>
       </c>
       <c r="B532" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C532" s="2" t="s">
         <v>1071</v>
-      </c>
-      <c r="C532" s="2" t="s">
-        <v>1072</v>
       </c>
       <c r="D532" s="2" t="s">
         <v>8</v>
@@ -16039,10 +16031,10 @@
         <v>582</v>
       </c>
       <c r="B533" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C533" s="2" t="s">
         <v>1073</v>
-      </c>
-      <c r="C533" s="2" t="s">
-        <v>1074</v>
       </c>
       <c r="D533" s="2" t="s">
         <v>13</v>
@@ -16059,10 +16051,10 @@
         <v>583</v>
       </c>
       <c r="B534" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C534" s="2" t="s">
         <v>1075</v>
-      </c>
-      <c r="C534" s="2" t="s">
-        <v>1076</v>
       </c>
       <c r="D534" s="2" t="s">
         <v>13</v>
@@ -16079,10 +16071,10 @@
         <v>587</v>
       </c>
       <c r="B535" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C535" s="2" t="s">
         <v>1077</v>
-      </c>
-      <c r="C535" s="2" t="s">
-        <v>1078</v>
       </c>
       <c r="D535" s="2" t="s">
         <v>18</v>
@@ -16099,10 +16091,10 @@
         <v>588</v>
       </c>
       <c r="B536" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C536" s="2" t="s">
         <v>1079</v>
-      </c>
-      <c r="C536" s="2" t="s">
-        <v>1080</v>
       </c>
       <c r="D536" s="2" t="s">
         <v>18</v>
@@ -16119,10 +16111,10 @@
         <v>591</v>
       </c>
       <c r="B537" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C537" s="2" t="s">
         <v>1081</v>
-      </c>
-      <c r="C537" s="2" t="s">
-        <v>1082</v>
       </c>
       <c r="D537" s="2" t="s">
         <v>18</v>
@@ -16139,10 +16131,10 @@
         <v>592</v>
       </c>
       <c r="B538" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C538" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="C538" s="2" t="s">
-        <v>1084</v>
       </c>
       <c r="D538" s="2" t="s">
         <v>13</v>
@@ -16159,10 +16151,10 @@
         <v>593</v>
       </c>
       <c r="B539" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C539" s="2" t="s">
         <v>1085</v>
-      </c>
-      <c r="C539" s="2" t="s">
-        <v>1086</v>
       </c>
       <c r="D539" s="2" t="s">
         <v>13</v>
@@ -16179,10 +16171,10 @@
         <v>594</v>
       </c>
       <c r="B540" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C540" s="2" t="s">
         <v>1087</v>
-      </c>
-      <c r="C540" s="2" t="s">
-        <v>1088</v>
       </c>
       <c r="D540" s="2" t="s">
         <v>8</v>
@@ -16194,7 +16186,7 @@
         <v>10</v>
       </c>
       <c r="G540" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.15">
@@ -16202,10 +16194,10 @@
         <v>598</v>
       </c>
       <c r="B541" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C541" s="2" t="s">
         <v>1089</v>
-      </c>
-      <c r="C541" s="2" t="s">
-        <v>1090</v>
       </c>
       <c r="D541" s="2" t="s">
         <v>8</v>
@@ -16217,7 +16209,7 @@
         <v>10</v>
       </c>
       <c r="G541" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.15">
@@ -16225,10 +16217,10 @@
         <v>599</v>
       </c>
       <c r="B542" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C542" s="2" t="s">
         <v>1091</v>
-      </c>
-      <c r="C542" s="2" t="s">
-        <v>1092</v>
       </c>
       <c r="D542" s="2" t="s">
         <v>8</v>
@@ -16240,7 +16232,7 @@
         <v>10</v>
       </c>
       <c r="G542" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.15">
@@ -16248,10 +16240,10 @@
         <v>600</v>
       </c>
       <c r="B543" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C543" s="2" t="s">
         <v>1093</v>
-      </c>
-      <c r="C543" s="2" t="s">
-        <v>1094</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>18</v>
@@ -16268,10 +16260,10 @@
         <v>604</v>
       </c>
       <c r="B544" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C544" s="2" t="s">
         <v>1095</v>
-      </c>
-      <c r="C544" s="2" t="s">
-        <v>1096</v>
       </c>
       <c r="D544" s="2" t="s">
         <v>8</v>
@@ -16288,10 +16280,10 @@
         <v>605</v>
       </c>
       <c r="B545" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C545" s="2" t="s">
         <v>1097</v>
-      </c>
-      <c r="C545" s="2" t="s">
-        <v>1098</v>
       </c>
       <c r="D545" s="2" t="s">
         <v>8</v>
@@ -16303,7 +16295,7 @@
         <v>10</v>
       </c>
       <c r="G545" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.15">
@@ -16311,10 +16303,10 @@
         <v>606</v>
       </c>
       <c r="B546" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C546" s="2" t="s">
         <v>1099</v>
-      </c>
-      <c r="C546" s="2" t="s">
-        <v>1100</v>
       </c>
       <c r="D546" s="2" t="s">
         <v>8</v>
@@ -16326,7 +16318,7 @@
         <v>10</v>
       </c>
       <c r="G546" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.15">
@@ -16334,10 +16326,10 @@
         <v>609</v>
       </c>
       <c r="B547" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C547" s="2" t="s">
         <v>1101</v>
-      </c>
-      <c r="C547" s="2" t="s">
-        <v>1102</v>
       </c>
       <c r="D547" s="2" t="s">
         <v>13</v>
@@ -16354,10 +16346,10 @@
         <v>611</v>
       </c>
       <c r="B548" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C548" s="2" t="s">
         <v>1103</v>
-      </c>
-      <c r="C548" s="2" t="s">
-        <v>1104</v>
       </c>
       <c r="D548" s="2" t="s">
         <v>13</v>
@@ -16374,10 +16366,10 @@
         <v>616</v>
       </c>
       <c r="B549" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C549" s="2" t="s">
         <v>1105</v>
-      </c>
-      <c r="C549" s="2" t="s">
-        <v>1106</v>
       </c>
       <c r="D549" s="2" t="s">
         <v>13</v>
@@ -16394,10 +16386,10 @@
         <v>617</v>
       </c>
       <c r="B550" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C550" s="2" t="s">
         <v>1107</v>
-      </c>
-      <c r="C550" s="2" t="s">
-        <v>1108</v>
       </c>
       <c r="D550" s="2" t="s">
         <v>8</v>
@@ -16409,7 +16401,7 @@
         <v>10</v>
       </c>
       <c r="G550" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.15">
@@ -16417,10 +16409,10 @@
         <v>621</v>
       </c>
       <c r="B551" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C551" s="2" t="s">
         <v>1109</v>
-      </c>
-      <c r="C551" s="2" t="s">
-        <v>1110</v>
       </c>
       <c r="D551" s="2" t="s">
         <v>13</v>
@@ -16437,10 +16429,10 @@
         <v>623</v>
       </c>
       <c r="B552" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C552" s="2" t="s">
         <v>1111</v>
-      </c>
-      <c r="C552" s="2" t="s">
-        <v>1112</v>
       </c>
       <c r="D552" s="2" t="s">
         <v>13</v>
@@ -16457,10 +16449,10 @@
         <v>624</v>
       </c>
       <c r="B553" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C553" s="2" t="s">
         <v>1113</v>
-      </c>
-      <c r="C553" s="2" t="s">
-        <v>1114</v>
       </c>
       <c r="D553" s="2" t="s">
         <v>8</v>
@@ -16477,10 +16469,10 @@
         <v>625</v>
       </c>
       <c r="B554" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C554" s="2" t="s">
         <v>1115</v>
-      </c>
-      <c r="C554" s="2" t="s">
-        <v>1116</v>
       </c>
       <c r="D554" s="2" t="s">
         <v>13</v>
@@ -16497,10 +16489,10 @@
         <v>628</v>
       </c>
       <c r="B555" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C555" s="2" t="s">
         <v>1117</v>
-      </c>
-      <c r="C555" s="2" t="s">
-        <v>1118</v>
       </c>
       <c r="D555" s="2" t="s">
         <v>8</v>
@@ -16512,7 +16504,7 @@
         <v>10</v>
       </c>
       <c r="G555" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.15">
@@ -16520,10 +16512,10 @@
         <v>629</v>
       </c>
       <c r="B556" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C556" s="2" t="s">
         <v>1119</v>
-      </c>
-      <c r="C556" s="2" t="s">
-        <v>1120</v>
       </c>
       <c r="D556" s="2" t="s">
         <v>18</v>
@@ -16540,10 +16532,10 @@
         <v>630</v>
       </c>
       <c r="B557" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C557" s="2" t="s">
         <v>1121</v>
-      </c>
-      <c r="C557" s="2" t="s">
-        <v>1122</v>
       </c>
       <c r="D557" s="2" t="s">
         <v>18</v>
@@ -16560,10 +16552,10 @@
         <v>631</v>
       </c>
       <c r="B558" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C558" s="2" t="s">
         <v>1123</v>
-      </c>
-      <c r="C558" s="2" t="s">
-        <v>1124</v>
       </c>
       <c r="D558" s="2" t="s">
         <v>18</v>
@@ -16580,10 +16572,10 @@
         <v>632</v>
       </c>
       <c r="B559" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C559" s="2" t="s">
         <v>1125</v>
-      </c>
-      <c r="C559" s="2" t="s">
-        <v>1126</v>
       </c>
       <c r="D559" s="2" t="s">
         <v>18</v>
@@ -16600,10 +16592,10 @@
         <v>633</v>
       </c>
       <c r="B560" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C560" s="2" t="s">
         <v>1127</v>
-      </c>
-      <c r="C560" s="2" t="s">
-        <v>1128</v>
       </c>
       <c r="D560" s="2" t="s">
         <v>8</v>
@@ -16615,7 +16607,7 @@
         <v>10</v>
       </c>
       <c r="G560" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.15">
@@ -16623,10 +16615,10 @@
         <v>634</v>
       </c>
       <c r="B561" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C561" s="2" t="s">
         <v>1129</v>
-      </c>
-      <c r="C561" s="2" t="s">
-        <v>1130</v>
       </c>
       <c r="D561" s="2" t="s">
         <v>13</v>
@@ -16643,10 +16635,10 @@
         <v>635</v>
       </c>
       <c r="B562" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C562" s="2" t="s">
         <v>1131</v>
-      </c>
-      <c r="C562" s="2" t="s">
-        <v>1132</v>
       </c>
       <c r="D562" s="2" t="s">
         <v>13</v>
@@ -16663,10 +16655,10 @@
         <v>636</v>
       </c>
       <c r="B563" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C563" s="2" t="s">
         <v>1133</v>
-      </c>
-      <c r="C563" s="2" t="s">
-        <v>1134</v>
       </c>
       <c r="D563" s="2" t="s">
         <v>13</v>
@@ -16683,10 +16675,10 @@
         <v>637</v>
       </c>
       <c r="B564" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C564" s="2" t="s">
         <v>1135</v>
-      </c>
-      <c r="C564" s="2" t="s">
-        <v>1136</v>
       </c>
       <c r="D564" s="2" t="s">
         <v>8</v>
@@ -16698,7 +16690,7 @@
         <v>10</v>
       </c>
       <c r="G564" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.15">
@@ -16706,10 +16698,10 @@
         <v>638</v>
       </c>
       <c r="B565" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C565" s="2" t="s">
         <v>1137</v>
-      </c>
-      <c r="C565" s="2" t="s">
-        <v>1138</v>
       </c>
       <c r="D565" s="2" t="s">
         <v>13</v>
@@ -16726,10 +16718,10 @@
         <v>639</v>
       </c>
       <c r="B566" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C566" s="2" t="s">
         <v>1139</v>
-      </c>
-      <c r="C566" s="2" t="s">
-        <v>1140</v>
       </c>
       <c r="D566" s="2" t="s">
         <v>18</v>
@@ -16746,10 +16738,10 @@
         <v>640</v>
       </c>
       <c r="B567" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C567" s="2" t="s">
         <v>1141</v>
-      </c>
-      <c r="C567" s="2" t="s">
-        <v>1142</v>
       </c>
       <c r="D567" s="2" t="s">
         <v>13</v>
@@ -16766,10 +16758,10 @@
         <v>642</v>
       </c>
       <c r="B568" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C568" s="2" t="s">
         <v>1143</v>
-      </c>
-      <c r="C568" s="2" t="s">
-        <v>1144</v>
       </c>
       <c r="D568" s="2" t="s">
         <v>18</v>
@@ -16786,10 +16778,10 @@
         <v>643</v>
       </c>
       <c r="B569" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C569" s="2" t="s">
         <v>1145</v>
-      </c>
-      <c r="C569" s="2" t="s">
-        <v>1146</v>
       </c>
       <c r="D569" s="2" t="s">
         <v>8</v>
@@ -16801,7 +16793,7 @@
         <v>10</v>
       </c>
       <c r="G569" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.15">
@@ -16809,10 +16801,10 @@
         <v>644</v>
       </c>
       <c r="B570" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C570" s="2" t="s">
         <v>1147</v>
-      </c>
-      <c r="C570" s="2" t="s">
-        <v>1148</v>
       </c>
       <c r="D570" s="2" t="s">
         <v>18</v>
@@ -16829,10 +16821,10 @@
         <v>645</v>
       </c>
       <c r="B571" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C571" s="2" t="s">
         <v>1149</v>
-      </c>
-      <c r="C571" s="2" t="s">
-        <v>1150</v>
       </c>
       <c r="D571" s="2" t="s">
         <v>8</v>
@@ -16844,7 +16836,7 @@
         <v>10</v>
       </c>
       <c r="G571" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.15">
@@ -16852,10 +16844,10 @@
         <v>646</v>
       </c>
       <c r="B572" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C572" s="2" t="s">
         <v>1151</v>
-      </c>
-      <c r="C572" s="2" t="s">
-        <v>1152</v>
       </c>
       <c r="D572" s="2" t="s">
         <v>13</v>
@@ -16872,10 +16864,10 @@
         <v>647</v>
       </c>
       <c r="B573" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C573" s="2" t="s">
         <v>1153</v>
-      </c>
-      <c r="C573" s="2" t="s">
-        <v>1154</v>
       </c>
       <c r="D573" s="2" t="s">
         <v>13</v>
@@ -16892,10 +16884,10 @@
         <v>648</v>
       </c>
       <c r="B574" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C574" s="2" t="s">
         <v>1155</v>
-      </c>
-      <c r="C574" s="2" t="s">
-        <v>1156</v>
       </c>
       <c r="D574" s="2" t="s">
         <v>13</v>
@@ -16912,10 +16904,10 @@
         <v>649</v>
       </c>
       <c r="B575" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C575" s="2" t="s">
         <v>1157</v>
-      </c>
-      <c r="C575" s="2" t="s">
-        <v>1158</v>
       </c>
       <c r="D575" s="2" t="s">
         <v>13</v>
@@ -16932,10 +16924,10 @@
         <v>650</v>
       </c>
       <c r="B576" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C576" s="2" t="s">
         <v>1159</v>
-      </c>
-      <c r="C576" s="2" t="s">
-        <v>1160</v>
       </c>
       <c r="D576" s="2" t="s">
         <v>13</v>
@@ -16952,10 +16944,10 @@
         <v>651</v>
       </c>
       <c r="B577" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C577" s="2" t="s">
         <v>1161</v>
-      </c>
-      <c r="C577" s="2" t="s">
-        <v>1162</v>
       </c>
       <c r="D577" s="2" t="s">
         <v>13</v>
@@ -16972,10 +16964,10 @@
         <v>652</v>
       </c>
       <c r="B578" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C578" s="2" t="s">
         <v>1163</v>
-      </c>
-      <c r="C578" s="2" t="s">
-        <v>1164</v>
       </c>
       <c r="D578" s="2" t="s">
         <v>13</v>
@@ -16992,10 +16984,10 @@
         <v>653</v>
       </c>
       <c r="B579" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C579" s="2" t="s">
         <v>1165</v>
-      </c>
-      <c r="C579" s="2" t="s">
-        <v>1166</v>
       </c>
       <c r="D579" s="2" t="s">
         <v>8</v>
@@ -17007,7 +16999,7 @@
         <v>10</v>
       </c>
       <c r="G579" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.15">
@@ -17015,10 +17007,10 @@
         <v>654</v>
       </c>
       <c r="B580" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C580" s="2" t="s">
         <v>1167</v>
-      </c>
-      <c r="C580" s="2" t="s">
-        <v>1168</v>
       </c>
       <c r="D580" s="2" t="s">
         <v>13</v>
@@ -17035,10 +17027,10 @@
         <v>655</v>
       </c>
       <c r="B581" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C581" s="2" t="s">
         <v>1169</v>
-      </c>
-      <c r="C581" s="2" t="s">
-        <v>1170</v>
       </c>
       <c r="D581" s="2" t="s">
         <v>13</v>
@@ -17055,10 +17047,10 @@
         <v>656</v>
       </c>
       <c r="B582" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C582" s="2" t="s">
         <v>1171</v>
-      </c>
-      <c r="C582" s="2" t="s">
-        <v>1172</v>
       </c>
       <c r="D582" s="2" t="s">
         <v>18</v>
@@ -17075,10 +17067,10 @@
         <v>657</v>
       </c>
       <c r="B583" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C583" s="2" t="s">
         <v>1173</v>
-      </c>
-      <c r="C583" s="2" t="s">
-        <v>1174</v>
       </c>
       <c r="D583" s="2" t="s">
         <v>8</v>
@@ -17095,10 +17087,10 @@
         <v>658</v>
       </c>
       <c r="B584" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C584" s="2" t="s">
         <v>1175</v>
-      </c>
-      <c r="C584" s="2" t="s">
-        <v>1176</v>
       </c>
       <c r="D584" s="2" t="s">
         <v>13</v>
@@ -17115,10 +17107,10 @@
         <v>659</v>
       </c>
       <c r="B585" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C585" s="2" t="s">
         <v>1177</v>
-      </c>
-      <c r="C585" s="2" t="s">
-        <v>1178</v>
       </c>
       <c r="D585" s="2" t="s">
         <v>13</v>
@@ -17135,10 +17127,10 @@
         <v>660</v>
       </c>
       <c r="B586" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C586" s="2" t="s">
         <v>1179</v>
-      </c>
-      <c r="C586" s="2" t="s">
-        <v>1180</v>
       </c>
       <c r="D586" s="2" t="s">
         <v>18</v>
@@ -17155,10 +17147,10 @@
         <v>661</v>
       </c>
       <c r="B587" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C587" s="2" t="s">
         <v>1181</v>
-      </c>
-      <c r="C587" s="2" t="s">
-        <v>1182</v>
       </c>
       <c r="D587" s="2" t="s">
         <v>8</v>
@@ -17175,10 +17167,10 @@
         <v>662</v>
       </c>
       <c r="B588" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C588" s="2" t="s">
         <v>1183</v>
-      </c>
-      <c r="C588" s="2" t="s">
-        <v>1184</v>
       </c>
       <c r="D588" s="2" t="s">
         <v>13</v>
@@ -17195,10 +17187,10 @@
         <v>663</v>
       </c>
       <c r="B589" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C589" s="2" t="s">
         <v>1185</v>
-      </c>
-      <c r="C589" s="2" t="s">
-        <v>1186</v>
       </c>
       <c r="D589" s="2" t="s">
         <v>13</v>
@@ -17215,10 +17207,10 @@
         <v>664</v>
       </c>
       <c r="B590" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C590" s="2" t="s">
         <v>1187</v>
-      </c>
-      <c r="C590" s="2" t="s">
-        <v>1188</v>
       </c>
       <c r="D590" s="2" t="s">
         <v>18</v>
@@ -17235,10 +17227,10 @@
         <v>665</v>
       </c>
       <c r="B591" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C591" s="2" t="s">
         <v>1189</v>
-      </c>
-      <c r="C591" s="2" t="s">
-        <v>1190</v>
       </c>
       <c r="D591" s="2" t="s">
         <v>8</v>
@@ -17255,10 +17247,10 @@
         <v>666</v>
       </c>
       <c r="B592" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C592" s="2" t="s">
         <v>1191</v>
-      </c>
-      <c r="C592" s="2" t="s">
-        <v>1192</v>
       </c>
       <c r="D592" s="2" t="s">
         <v>13</v>
@@ -17275,10 +17267,10 @@
         <v>667</v>
       </c>
       <c r="B593" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C593" s="2" t="s">
         <v>1193</v>
-      </c>
-      <c r="C593" s="2" t="s">
-        <v>1194</v>
       </c>
       <c r="D593" s="2" t="s">
         <v>13</v>
@@ -17295,10 +17287,10 @@
         <v>668</v>
       </c>
       <c r="B594" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C594" s="2" t="s">
         <v>1195</v>
-      </c>
-      <c r="C594" s="2" t="s">
-        <v>1196</v>
       </c>
       <c r="D594" s="2" t="s">
         <v>18</v>
@@ -17315,10 +17307,10 @@
         <v>669</v>
       </c>
       <c r="B595" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C595" s="2" t="s">
         <v>1197</v>
-      </c>
-      <c r="C595" s="2" t="s">
-        <v>1198</v>
       </c>
       <c r="D595" s="2" t="s">
         <v>8</v>
@@ -17335,10 +17327,10 @@
         <v>670</v>
       </c>
       <c r="B596" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C596" s="2" t="s">
         <v>1199</v>
-      </c>
-      <c r="C596" s="2" t="s">
-        <v>1200</v>
       </c>
       <c r="D596" s="2" t="s">
         <v>13</v>
@@ -17355,10 +17347,10 @@
         <v>671</v>
       </c>
       <c r="B597" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C597" s="2" t="s">
         <v>1201</v>
-      </c>
-      <c r="C597" s="2" t="s">
-        <v>1202</v>
       </c>
       <c r="D597" s="2" t="s">
         <v>8</v>
@@ -17375,11 +17367,11 @@
         <v>672</v>
       </c>
       <c r="B598" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C598" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="C598" s="2" t="s">
-        <v>1204</v>
-      </c>
       <c r="D598" s="2" t="s">
         <v>13</v>
       </c>
@@ -17391,6 +17383,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G598"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">

--- a/LeetCode/leetcode.xlsx
+++ b/LeetCode/leetcode.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SanDisk/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="960" windowWidth="28560" windowHeight="17385"/>
+    <workbookView xWindow="3820" yWindow="1240" windowWidth="28560" windowHeight="17380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="1214">
   <si>
     <t>题号</t>
   </si>
@@ -3683,7 +3683,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -4115,14 +4115,14 @@
   <dimension ref="A1:L598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="54.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4221,7 +4221,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="L4" t="s">
         <v>1210</v>
@@ -4457,7 +4457,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -4871,7 +4871,7 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -4917,7 +4917,7 @@
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -4940,7 +4940,7 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -4963,7 +4963,7 @@
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -5236,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -5558,7 +5558,7 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -5834,7 +5834,7 @@
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -6133,7 +6133,7 @@
         <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -6225,7 +6225,7 @@
         <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -6248,7 +6248,7 @@
         <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -6340,7 +6340,7 @@
         <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
@@ -6570,7 +6570,7 @@
         <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -6593,7 +6593,7 @@
         <v>10</v>
       </c>
       <c r="G107" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
@@ -6685,7 +6685,7 @@
         <v>10</v>
       </c>
       <c r="G111" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
@@ -6754,7 +6754,7 @@
         <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
@@ -7421,7 +7421,7 @@
         <v>10</v>
       </c>
       <c r="G143" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
@@ -7674,7 +7674,7 @@
         <v>10</v>
       </c>
       <c r="G154" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -8159,7 +8159,7 @@
         <v>10</v>
       </c>
       <c r="G176" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
@@ -8708,7 +8708,7 @@
         <v>10</v>
       </c>
       <c r="G200" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
@@ -8868,6 +8868,9 @@
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G207" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
@@ -9004,7 +9007,7 @@
         <v>10</v>
       </c>
       <c r="G213" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
@@ -9027,7 +9030,7 @@
         <v>10</v>
       </c>
       <c r="G214" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
@@ -9050,7 +9053,7 @@
         <v>10</v>
       </c>
       <c r="G215" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.15">
@@ -9303,7 +9306,7 @@
         <v>10</v>
       </c>
       <c r="G226" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
@@ -9993,7 +9996,7 @@
         <v>10</v>
       </c>
       <c r="G259" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -11057,7 +11060,7 @@
         <v>10</v>
       </c>
       <c r="G308" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
@@ -11235,7 +11238,7 @@
         <v>10</v>
       </c>
       <c r="G316" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
@@ -11433,7 +11436,7 @@
         <v>10</v>
       </c>
       <c r="G325" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.15">
@@ -12400,7 +12403,7 @@
         <v>10</v>
       </c>
       <c r="G369" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.15">
@@ -12837,7 +12840,7 @@
         <v>10</v>
       </c>
       <c r="G388" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
@@ -13282,7 +13285,7 @@
         <v>10</v>
       </c>
       <c r="G408" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.15">
@@ -13371,7 +13374,7 @@
         <v>10</v>
       </c>
       <c r="G412" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
@@ -13394,7 +13397,7 @@
         <v>10</v>
       </c>
       <c r="G413" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.15">
@@ -13440,7 +13443,7 @@
         <v>10</v>
       </c>
       <c r="G415" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.15">
@@ -13664,7 +13667,7 @@
         <v>10</v>
       </c>
       <c r="G425" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.15">
@@ -13687,7 +13690,7 @@
         <v>10</v>
       </c>
       <c r="G426" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.15">
@@ -13848,7 +13851,7 @@
         <v>10</v>
       </c>
       <c r="G433" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
@@ -14181,7 +14184,7 @@
         <v>10</v>
       </c>
       <c r="G448" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.15">
@@ -14227,7 +14230,7 @@
         <v>10</v>
       </c>
       <c r="G450" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.15">
@@ -14249,6 +14252,9 @@
       <c r="F451" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G451" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A452" s="1">
@@ -14482,7 +14488,7 @@
         <v>10</v>
       </c>
       <c r="G462" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.15">
@@ -14551,7 +14557,7 @@
         <v>10</v>
       </c>
       <c r="G465" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.15">
@@ -15229,7 +15235,7 @@
         <v>10</v>
       </c>
       <c r="G495" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.15">
@@ -15383,6 +15389,9 @@
       <c r="F502" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G502" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A503" s="1">
@@ -15816,6 +15825,9 @@
       <c r="F522" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G522" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A523" s="1">
@@ -16025,6 +16037,9 @@
       <c r="F532" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G532" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A533" s="1">
@@ -16186,7 +16201,7 @@
         <v>10</v>
       </c>
       <c r="G540" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.15">
@@ -16504,7 +16519,7 @@
         <v>10</v>
       </c>
       <c r="G555" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.15">
@@ -17021,6 +17036,9 @@
       <c r="F580" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G580" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A581" s="1">
@@ -17081,6 +17099,9 @@
       <c r="F583" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G583" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A584" s="1">
@@ -17101,6 +17122,9 @@
       <c r="F584" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G584" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A585" s="1">
@@ -17241,6 +17265,9 @@
       <c r="F591" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G591" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A592" s="1">
@@ -17262,7 +17289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A593" s="1">
         <v>667</v>
       </c>
@@ -17282,7 +17309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A594" s="1">
         <v>668</v>
       </c>
@@ -17302,7 +17329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A595" s="1">
         <v>669</v>
       </c>
@@ -17321,8 +17348,11 @@
       <c r="F595" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G595" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A596" s="1">
         <v>670</v>
       </c>
@@ -17342,7 +17372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A597" s="1">
         <v>671</v>
       </c>
@@ -17361,8 +17391,11 @@
       <c r="F597" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G597" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A598" s="1">
         <v>672</v>
       </c>
@@ -17383,7 +17416,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G598"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">

--- a/LeetCode/leetcode.xlsx
+++ b/LeetCode/leetcode.xlsx
@@ -4233,10 +4233,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4368,7 +4369,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="L5" t="s">
         <v>1208</v>
@@ -4509,7 +4510,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -4808,7 +4809,7 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -4854,7 +4855,7 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -5015,7 +5016,7 @@
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -5133,7 +5134,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -5288,7 +5289,7 @@
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -5311,7 +5312,7 @@
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -5771,7 +5772,7 @@
         <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -5932,7 +5933,7 @@
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -6208,7 +6209,7 @@
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -6231,7 +6232,7 @@
         <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -6507,7 +6508,7 @@
         <v>10</v>
       </c>
       <c r="G98" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -6921,7 +6922,7 @@
         <v>10</v>
       </c>
       <c r="G116" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
@@ -7128,7 +7129,7 @@
         <v>10</v>
       </c>
       <c r="G125" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
@@ -7844,7 +7845,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -7864,7 +7865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -7884,7 +7885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -7947,7 +7948,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -7990,7 +7991,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -8148,7 +8149,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -8283,7 +8284,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>186</v>
       </c>
@@ -9453,7 +9454,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>243</v>
       </c>
@@ -9473,7 +9474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>244</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>245</v>
       </c>
@@ -9513,7 +9514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>246</v>
       </c>
@@ -9533,7 +9534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>247</v>
       </c>
@@ -9553,7 +9554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>248</v>
       </c>
@@ -9573,7 +9574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>249</v>
       </c>
@@ -9593,7 +9594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>250</v>
       </c>
@@ -9613,7 +9614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>251</v>
       </c>
@@ -9633,7 +9634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>252</v>
       </c>
@@ -9653,7 +9654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>253</v>
       </c>
@@ -9673,7 +9674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>254</v>
       </c>
@@ -9693,7 +9694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>255</v>
       </c>
@@ -9713,7 +9714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>256</v>
       </c>
@@ -9779,7 +9780,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>259</v>
       </c>
@@ -9822,7 +9823,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>261</v>
       </c>
@@ -9888,7 +9889,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>265</v>
       </c>
@@ -9908,7 +9909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>266</v>
       </c>
@@ -9928,7 +9929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>267</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>269</v>
       </c>
@@ -9991,7 +9992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>270</v>
       </c>
@@ -10011,7 +10012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>271</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>272</v>
       </c>
@@ -10120,7 +10121,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>276</v>
       </c>
@@ -10140,7 +10141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>277</v>
       </c>
@@ -10206,7 +10207,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>280</v>
       </c>
@@ -10226,7 +10227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>281</v>
       </c>
@@ -10315,7 +10316,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>285</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>286</v>
       </c>
@@ -10378,7 +10379,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>288</v>
       </c>
@@ -10444,7 +10445,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>291</v>
       </c>
@@ -10487,7 +10488,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>293</v>
       </c>
@@ -10507,7 +10508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>294</v>
       </c>
@@ -10550,7 +10551,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>296</v>
       </c>
@@ -10593,7 +10594,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>298</v>
       </c>
@@ -10659,7 +10660,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>301</v>
       </c>
@@ -10679,7 +10680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>302</v>
       </c>
@@ -10745,7 +10746,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>305</v>
       </c>
@@ -10811,7 +10812,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>308</v>
       </c>
@@ -10877,7 +10878,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>311</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>314</v>
       </c>
@@ -11009,7 +11010,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>317</v>
       </c>
@@ -11075,7 +11076,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
         <v>320</v>
       </c>
@@ -11141,7 +11142,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
         <v>323</v>
       </c>
@@ -11184,7 +11185,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>325</v>
       </c>
@@ -11227,7 +11228,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
         <v>327</v>
       </c>
@@ -11362,7 +11363,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
         <v>333</v>
       </c>
@@ -11497,7 +11498,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
         <v>339</v>
       </c>
@@ -11517,7 +11518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>340</v>
       </c>
@@ -11652,7 +11653,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>346</v>
       </c>
@@ -11695,7 +11696,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>348</v>
       </c>
@@ -11761,7 +11762,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
         <v>351</v>
       </c>
@@ -11804,7 +11805,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>353</v>
       </c>
@@ -11870,7 +11871,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>356</v>
       </c>
@@ -11913,7 +11914,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>358</v>
       </c>
@@ -11933,7 +11934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>359</v>
       </c>
@@ -11953,7 +11954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>360</v>
       </c>
@@ -11973,7 +11974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>361</v>
       </c>
@@ -11993,7 +11994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>362</v>
       </c>
@@ -12036,7 +12037,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>364</v>
       </c>
@@ -12079,7 +12080,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>366</v>
       </c>
@@ -12145,7 +12146,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>369</v>
       </c>
@@ -12165,7 +12166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>370</v>
       </c>
@@ -12369,7 +12370,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
         <v>379</v>
       </c>
@@ -13033,7 +13034,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
         <v>408</v>
       </c>
@@ -13099,7 +13100,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
         <v>411</v>
       </c>
@@ -13257,7 +13258,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
         <v>418</v>
       </c>
@@ -13300,7 +13301,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
         <v>420</v>
       </c>
@@ -13343,7 +13344,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
         <v>422</v>
       </c>
@@ -13409,7 +13410,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
         <v>425</v>
       </c>
@@ -13567,7 +13568,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
         <v>439</v>
       </c>
@@ -13656,7 +13657,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
         <v>444</v>
       </c>
@@ -14090,7 +14091,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
         <v>465</v>
       </c>
@@ -14110,7 +14111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
         <v>466</v>
       </c>
@@ -14176,7 +14177,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A443" s="1">
         <v>469</v>
       </c>
@@ -14196,7 +14197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
         <v>471</v>
       </c>
@@ -14400,7 +14401,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
         <v>481</v>
       </c>
@@ -14443,7 +14444,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A455" s="1">
         <v>483</v>
       </c>
@@ -14463,7 +14464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
         <v>484</v>
       </c>
@@ -14529,7 +14530,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A459" s="1">
         <v>487</v>
       </c>
@@ -14549,7 +14550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
         <v>488</v>
       </c>
@@ -14569,7 +14570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
         <v>490</v>
       </c>
@@ -14750,7 +14751,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
         <v>499</v>
       </c>
@@ -14885,7 +14886,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
         <v>505</v>
       </c>
@@ -15250,7 +15251,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A491" s="1">
         <v>527</v>
       </c>
@@ -15316,7 +15317,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A494" s="1">
         <v>531</v>
       </c>
@@ -15359,7 +15360,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A496" s="1">
         <v>533</v>
       </c>
@@ -15402,7 +15403,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A498" s="1">
         <v>536</v>
       </c>
@@ -15583,7 +15584,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A506" s="1">
         <v>544</v>
       </c>
@@ -15603,7 +15604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A507" s="1">
         <v>545</v>
       </c>
@@ -15623,7 +15624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A508" s="1">
         <v>546</v>
       </c>
@@ -15666,7 +15667,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A510" s="1">
         <v>548</v>
       </c>
@@ -15686,7 +15687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A511" s="1">
         <v>549</v>
       </c>
@@ -15798,7 +15799,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A516" s="1">
         <v>555</v>
       </c>
@@ -15910,7 +15911,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A521" s="1">
         <v>562</v>
       </c>
@@ -15953,7 +15954,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A523" s="1">
         <v>564</v>
       </c>
@@ -16019,7 +16020,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A526" s="1">
         <v>568</v>
       </c>
@@ -16062,7 +16063,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
         <v>573</v>
       </c>
@@ -16151,7 +16152,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A532" s="1">
         <v>582</v>
       </c>
@@ -16194,7 +16195,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A534" s="1">
         <v>587</v>
       </c>
@@ -16214,7 +16215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A535" s="1">
         <v>588</v>
       </c>
@@ -16234,7 +16235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A536" s="1">
         <v>591</v>
       </c>
@@ -16369,7 +16370,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A542" s="1">
         <v>600</v>
       </c>
@@ -16389,7 +16390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A543" s="1">
         <v>604</v>
       </c>
@@ -16501,7 +16502,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A548" s="1">
         <v>616</v>
       </c>
@@ -16590,7 +16591,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A552" s="1">
         <v>624</v>
       </c>
@@ -16610,7 +16611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A553" s="1">
         <v>625</v>
       </c>
@@ -16653,7 +16654,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A555" s="1">
         <v>629</v>
       </c>
@@ -16673,7 +16674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A556" s="1">
         <v>630</v>
       </c>
@@ -16693,7 +16694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A557" s="1">
         <v>631</v>
       </c>
@@ -16759,7 +16760,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A560" s="1">
         <v>634</v>
       </c>
@@ -16779,7 +16780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A561" s="1">
         <v>635</v>
       </c>
@@ -16868,7 +16869,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A565" s="1">
         <v>639</v>
       </c>
@@ -16911,7 +16912,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A567" s="1">
         <v>642</v>
       </c>
@@ -16954,7 +16955,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A569" s="1">
         <v>644</v>
       </c>
@@ -17112,7 +17113,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A576" s="1">
         <v>651</v>
       </c>
@@ -17224,7 +17225,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A581" s="1">
         <v>656</v>
       </c>
@@ -17313,7 +17314,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A585" s="1">
         <v>660</v>
       </c>
@@ -17379,7 +17380,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A588" s="1">
         <v>663</v>
       </c>
@@ -17399,7 +17400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A589" s="1">
         <v>664</v>
       </c>
@@ -17442,7 +17443,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A591" s="1">
         <v>666</v>
       </c>
@@ -17485,7 +17486,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A593" s="1">
         <v>668</v>
       </c>
@@ -17643,7 +17644,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A600" s="1">
         <v>675</v>
       </c>
@@ -18005,7 +18006,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A616" s="1">
         <v>691</v>
       </c>
@@ -18048,7 +18049,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A618" s="1">
         <v>694</v>
       </c>
@@ -18092,7 +18093,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G619"/>
+  <autoFilter ref="A1:G619">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="是"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
